--- a/Capstone Gantt Chart.xlsx
+++ b/Capstone Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\AndroidStudioProjects\A-Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E0258F-D89D-435E-A1B6-8400636BC3D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529C024-A912-4442-825E-6C3D2FF6E244}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12398" windowHeight="5670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capston Schedule" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
   <si>
     <t>TASK NAME</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Chris</t>
-  </si>
-  <si>
-    <t>Rohan/Akash</t>
   </si>
   <si>
     <t>Akash</t>
@@ -736,6 +733,21 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,21 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,8 +1078,8 @@
   </sheetPr>
   <dimension ref="A1:BK996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1096,16 +1093,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1163,14 +1160,14 @@
       <c r="BK1" s="2"/>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1228,14 +1225,14 @@
       <c r="BK2" s="2"/>
     </row>
     <row r="3" spans="1:63" ht="30" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1293,115 +1290,115 @@
       <c r="BK3" s="7"/>
     </row>
     <row r="4" spans="1:63" ht="14.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="99" t="s">
+      <c r="E4" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="101" t="s">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="101" t="s">
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="101" t="s">
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="101" t="s">
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="101" t="s">
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="101" t="s">
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="101" t="s">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="101" t="s">
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="101" t="s">
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="102"/>
-      <c r="BG4" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
-      <c r="BJ4" s="102"/>
-      <c r="BK4" s="102"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
     </row>
     <row r="5" spans="1:63" ht="14.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="105"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="37" t="s">
         <v>6</v>
       </c>
@@ -1573,12 +1570,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
       <c r="K6" s="14"/>
@@ -1637,7 +1634,7 @@
     </row>
     <row r="7" spans="1:63" ht="14.25">
       <c r="B7" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="29">
         <v>43494</v>
@@ -1814,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="18">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I9" s="84"/>
       <c r="J9" s="85"/>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="13" spans="1:63" ht="14.25">
       <c r="B13" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16">
         <v>43529</v>
@@ -2193,12 +2190,12 @@
         <v>15</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="I14" s="26"/>
       <c r="J14" s="27"/>
       <c r="K14" s="28"/>
@@ -2273,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="30">
         <v>1</v>
@@ -2431,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="30">
         <v>0.2</v>
@@ -2510,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="30">
         <v>0.3</v>
@@ -2573,7 +2570,7 @@
     </row>
     <row r="19" spans="1:63" s="36" customFormat="1" ht="14.25">
       <c r="B19" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="29">
         <v>43519</v>
@@ -2589,7 +2586,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="30">
         <v>0.3</v>
@@ -2655,12 +2652,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="26"/>
       <c r="J20" s="27"/>
       <c r="K20" s="28"/>
@@ -2735,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="31">
         <v>0.95</v>
@@ -2798,7 +2795,7 @@
     </row>
     <row r="22" spans="1:63" ht="14.25">
       <c r="B22" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="29">
         <v>43500</v>
@@ -2877,7 +2874,7 @@
     </row>
     <row r="23" spans="1:63" ht="14.25">
       <c r="B23" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="29">
         <v>43512</v>
@@ -2956,7 +2953,7 @@
     </row>
     <row r="24" spans="1:63" s="36" customFormat="1" ht="14.25">
       <c r="B24" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="29">
         <v>43512</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="25" spans="1:63" ht="14.25">
       <c r="B25" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="29">
         <v>43519</v>
@@ -3117,12 +3114,12 @@
         <v>17</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
       <c r="K26" s="28"/>
@@ -3181,7 +3178,7 @@
     </row>
     <row r="27" spans="1:63" ht="14.25">
       <c r="B27" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="29">
         <v>43494</v>
@@ -3200,7 +3197,7 @@
         <v>27</v>
       </c>
       <c r="H27" s="31">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="59"/>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="28" spans="1:63" ht="14.25">
       <c r="B28" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="29">
         <v>43497</v>
@@ -3275,24 +3272,24 @@
         <f t="shared" ref="F28:F33" si="4">NETWORKDAYS(C28,D28)</f>
         <v>8</v>
       </c>
-      <c r="G28" s="55" t="s">
-        <v>29</v>
+      <c r="G28" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="H28" s="31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="29" spans="1:63" s="36" customFormat="1" ht="14.25">
       <c r="B29" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="29">
         <v>43509</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="30" spans="1:63" s="36" customFormat="1" ht="14.25">
       <c r="B30" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="29">
         <v>43549</v>
@@ -3434,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="31">
         <v>0</v>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="31" spans="1:63" ht="14.25">
       <c r="B31" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="29">
         <v>43529</v>
@@ -3576,7 +3573,7 @@
     </row>
     <row r="32" spans="1:63" s="46" customFormat="1" ht="14.25">
       <c r="B32" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="29">
         <v>43529</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="33" spans="1:63" ht="14.25">
       <c r="B33" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="29">
         <v>43529</v>
@@ -3671,7 +3668,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="31">
         <v>0</v>
@@ -6692,6 +6689,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="AM4:AQ4"/>
     <mergeCell ref="AH4:AL4"/>
     <mergeCell ref="C4:C5"/>
@@ -6706,16 +6713,6 @@
     <mergeCell ref="BB4:BF4"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:H19">
     <cfRule type="colorScale" priority="5">

--- a/Capstone Gantt Chart.xlsx
+++ b/Capstone Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\AndroidStudioProjects\A-Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529C024-A912-4442-825E-6C3D2FF6E244}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37485566-5CA0-4331-B9D9-9303ADEEDB30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12398" windowHeight="5670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capston Schedule" sheetId="3" r:id="rId1"/>
@@ -584,8 +584,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="98">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -601,7 +601,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -618,32 +618,28 @@
     <xf numFmtId="9" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,16 +652,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -693,62 +686,44 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +734,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,30 +1069,29 @@
   <dimension ref="A1:BK996"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.796875" customWidth="1"/>
     <col min="2" max="2" width="35.796875" customWidth="1"/>
-    <col min="3" max="4" width="10.1328125" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" style="48" customWidth="1"/>
+    <col min="3" max="5" width="10.1328125" customWidth="1"/>
     <col min="6" max="8" width="12.33203125" customWidth="1"/>
     <col min="9" max="63" width="4.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1160,14 +1149,14 @@
       <c r="BK1" s="2"/>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1225,14 +1214,14 @@
       <c r="BK2" s="2"/>
     </row>
     <row r="3" spans="1:63" ht="30" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1290,275 +1279,275 @@
       <c r="BK3" s="7"/>
     </row>
     <row r="4" spans="1:63" ht="14.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="94" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="94" t="s">
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="94" t="s">
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="94" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="94" t="s">
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="94" t="s">
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="94" t="s">
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="94" t="s">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="94" t="s">
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="94" t="s">
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
     </row>
     <row r="5" spans="1:63" ht="14.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="37" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="W5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="39" t="s">
+      <c r="Y5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="39" t="s">
+      <c r="Z5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="39" t="s">
+      <c r="AA5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="37" t="s">
+      <c r="AC5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="37" t="s">
+      <c r="AD5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="37" t="s">
+      <c r="AE5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="37" t="s">
+      <c r="AF5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="AG5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AH5" s="39" t="s">
+      <c r="AH5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" s="39" t="s">
+      <c r="AI5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AJ5" s="39" t="s">
+      <c r="AJ5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AK5" s="39" t="s">
+      <c r="AK5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="AL5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AM5" s="37" t="s">
+      <c r="AM5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="37" t="s">
+      <c r="AN5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AO5" s="37" t="s">
+      <c r="AO5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="37" t="s">
+      <c r="AP5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="AQ5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="39" t="s">
+      <c r="AR5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AS5" s="39" t="s">
+      <c r="AS5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AT5" s="39" t="s">
+      <c r="AT5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AU5" s="39" t="s">
+      <c r="AU5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="AV5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AW5" s="37" t="s">
+      <c r="AW5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AX5" s="37" t="s">
+      <c r="AX5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AY5" s="37" t="s">
+      <c r="AY5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AZ5" s="37" t="s">
+      <c r="AZ5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="BA5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BB5" s="39" t="s">
+      <c r="BB5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="BC5" s="39" t="s">
+      <c r="BC5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="BD5" s="39" t="s">
+      <c r="BD5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="BE5" s="39" t="s">
+      <c r="BE5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="BF5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="BG5" s="37" t="s">
+      <c r="BG5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="BH5" s="37" t="s">
+      <c r="BH5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="BI5" s="37" t="s">
+      <c r="BI5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="BJ5" s="37" t="s">
+      <c r="BJ5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="BK5" s="8" t="s">
@@ -1570,12 +1559,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
       <c r="K6" s="14"/>
@@ -1629,37 +1618,37 @@
       <c r="BG6" s="12"/>
       <c r="BH6" s="12"/>
       <c r="BI6" s="12"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
+      <c r="BJ6" s="40"/>
+      <c r="BK6" s="40"/>
     </row>
     <row r="7" spans="1:63" ht="14.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="16">
         <v>43494</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="16">
         <v>43500</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="84">
         <v>1</v>
       </c>
       <c r="F7" s="17">
         <f>NETWORKDAYS(C7,D7)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="44" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="18">
         <v>1</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -1707,28 +1696,28 @@
       <c r="BF7" s="22"/>
       <c r="BG7" s="23"/>
       <c r="BH7" s="23"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="41"/>
+      <c r="BK7" s="41"/>
     </row>
     <row r="8" spans="1:63" ht="14.25">
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="16">
         <v>43497</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="16">
         <v>43508</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="84">
         <v>3</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ref="F8:F13" si="0">NETWORKDAYS(C8,D8)</f>
         <v>8</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="45" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="18">
@@ -1738,14 +1727,14 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
@@ -1786,53 +1775,53 @@
       <c r="BF8" s="22"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="23"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="43"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="41"/>
+      <c r="BK8" s="41"/>
     </row>
     <row r="9" spans="1:63" ht="14.25">
       <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="16">
         <v>43494</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="43">
         <v>43518</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="85">
         <v>10</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="46" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
       <c r="AE9" s="23"/>
@@ -1865,32 +1854,32 @@
       <c r="BF9" s="22"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="23"/>
-      <c r="BI9" s="41"/>
-      <c r="BJ9" s="43"/>
-      <c r="BK9" s="43"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="41"/>
+      <c r="BK9" s="41"/>
     </row>
     <row r="10" spans="1:63" ht="14.25">
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="16">
         <v>43504</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <v>43511</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="85">
         <v>10</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="45" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="20"/>
@@ -1901,12 +1890,12 @@
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
@@ -1944,32 +1933,32 @@
       <c r="BF10" s="22"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="23"/>
-      <c r="BI10" s="41"/>
-      <c r="BJ10" s="43"/>
-      <c r="BK10" s="43"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="41"/>
+      <c r="BK10" s="41"/>
     </row>
     <row r="11" spans="1:63" ht="14.25">
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="16">
         <v>43511</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <v>43518</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="85">
         <v>2</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="45" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
@@ -1985,12 +1974,12 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
       <c r="AC11" s="23"/>
       <c r="AD11" s="23"/>
       <c r="AE11" s="23"/>
@@ -2023,28 +2012,28 @@
       <c r="BF11" s="22"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="23"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="43"/>
-      <c r="BK11" s="43"/>
-    </row>
-    <row r="12" spans="1:63" s="47" customFormat="1" ht="14.25">
-      <c r="B12" s="40" t="s">
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="41"/>
+      <c r="BK11" s="41"/>
+    </row>
+    <row r="12" spans="1:63" ht="14.25">
+      <c r="B12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="16">
         <v>43519</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="43">
         <v>43528</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="85">
         <v>2</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="46" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="18">
@@ -2064,18 +2053,18 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="83"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="75"/>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22"/>
@@ -2102,28 +2091,28 @@
       <c r="BF12" s="22"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="23"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="43"/>
-      <c r="BK12" s="43"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="41"/>
     </row>
     <row r="13" spans="1:63" ht="14.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="16">
         <v>43529</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="43">
         <v>43549</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="85">
         <v>1</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="18">
@@ -2155,21 +2144,21 @@
       <c r="AF13" s="23"/>
       <c r="AG13" s="23"/>
       <c r="AH13" s="22"/>
-      <c r="AI13" s="83"/>
-      <c r="AJ13" s="83"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="83"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="83"/>
-      <c r="AW13" s="81"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="75"/>
+      <c r="AU13" s="75"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="73"/>
       <c r="AX13" s="21"/>
       <c r="AY13" s="21"/>
       <c r="AZ13" s="21"/>
@@ -2181,21 +2170,21 @@
       <c r="BF13" s="22"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="23"/>
-      <c r="BI13" s="41"/>
-      <c r="BJ13" s="43"/>
-      <c r="BK13" s="43"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="41"/>
     </row>
     <row r="14" spans="1:63">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="26"/>
       <c r="J14" s="27"/>
       <c r="K14" s="28"/>
@@ -2249,38 +2238,38 @@
       <c r="BG14" s="26"/>
       <c r="BH14" s="26"/>
       <c r="BI14" s="26"/>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
     </row>
     <row r="15" spans="1:63" ht="14.25">
       <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="16">
         <v>43494</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="16">
         <v>43500</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="84">
         <v>10</v>
       </c>
       <c r="F15" s="17">
         <f>NETWORKDAYS(C15,D15)</f>
         <v>5</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <v>1</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -2327,39 +2316,39 @@
       <c r="BF15" s="22"/>
       <c r="BG15" s="23"/>
       <c r="BH15" s="23"/>
-      <c r="BI15" s="41"/>
-      <c r="BJ15" s="43"/>
-      <c r="BK15" s="43"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="41"/>
     </row>
     <row r="16" spans="1:63" ht="14.25">
       <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="16">
         <v>43497</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="43">
         <v>43500</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="85">
         <v>5</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ref="F16:F19" si="1">NETWORKDAYS(C16,D16)</f>
         <v>2</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="29">
         <v>0.9</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="64"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
@@ -2406,48 +2395,48 @@
       <c r="BF16" s="22"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="23"/>
-      <c r="BI16" s="41"/>
-      <c r="BJ16" s="43"/>
-      <c r="BK16" s="43"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="41"/>
     </row>
     <row r="17" spans="1:63" ht="14.25">
       <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="16">
         <v>43500</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="43">
         <v>43511</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="85">
         <v>10</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="30">
-        <v>0.2</v>
+      <c r="H17" s="29">
+        <v>0.9</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
       <c r="X17" s="22"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
@@ -2485,32 +2474,32 @@
       <c r="BF17" s="22"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="23"/>
-      <c r="BI17" s="41"/>
-      <c r="BJ17" s="43"/>
-      <c r="BK17" s="43"/>
+      <c r="BI17" s="39"/>
+      <c r="BJ17" s="41"/>
+      <c r="BK17" s="41"/>
     </row>
     <row r="18" spans="1:63" ht="14.25">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="16">
         <v>43512</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="43">
         <v>43518</v>
       </c>
-      <c r="E18" s="93">
+      <c r="E18" s="85">
         <v>5</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="30">
-        <v>0.3</v>
+      <c r="H18" s="29">
+        <v>0.6</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
@@ -2527,11 +2516,11 @@
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
       <c r="AE18" s="23"/>
@@ -2564,31 +2553,31 @@
       <c r="BF18" s="22"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="23"/>
-      <c r="BI18" s="41"/>
-      <c r="BJ18" s="43"/>
-      <c r="BK18" s="43"/>
-    </row>
-    <row r="19" spans="1:63" s="36" customFormat="1" ht="14.25">
-      <c r="B19" s="40" t="s">
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="41"/>
+      <c r="BK18" s="41"/>
+    </row>
+    <row r="19" spans="1:63" ht="14.25">
+      <c r="B19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="16">
         <v>43519</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="43">
         <v>43549</v>
       </c>
-      <c r="E19" s="93">
+      <c r="E19" s="85">
         <v>15</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>0.3</v>
       </c>
       <c r="I19" s="19"/>
@@ -2611,27 +2600,27 @@
       <c r="Z19" s="22"/>
       <c r="AA19" s="22"/>
       <c r="AB19" s="22"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="90"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="90"/>
-      <c r="AU19" s="90"/>
-      <c r="AV19" s="90"/>
-      <c r="AW19" s="89"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="83"/>
+      <c r="AN19" s="83"/>
+      <c r="AO19" s="83"/>
+      <c r="AP19" s="83"/>
+      <c r="AQ19" s="83"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="82"/>
+      <c r="AU19" s="82"/>
+      <c r="AV19" s="82"/>
+      <c r="AW19" s="81"/>
       <c r="AX19" s="21"/>
       <c r="AY19" s="21"/>
       <c r="AZ19" s="21"/>
@@ -2643,31 +2632,31 @@
       <c r="BF19" s="22"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="23"/>
-      <c r="BI19" s="41"/>
-      <c r="BJ19" s="43"/>
-      <c r="BK19" s="43"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="41"/>
+      <c r="BK19" s="41"/>
     </row>
     <row r="20" spans="1:63">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="26"/>
       <c r="J20" s="27"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="26"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
@@ -2711,38 +2700,38 @@
       <c r="BG20" s="26"/>
       <c r="BH20" s="26"/>
       <c r="BI20" s="26"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
     </row>
     <row r="21" spans="1:63" ht="14.25">
       <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="16">
         <v>43494</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="16">
         <v>43500</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="84">
         <v>10</v>
       </c>
       <c r="F21" s="17">
         <f>NETWORKDAYS(C21,D21)</f>
         <v>5</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="30">
         <v>0.95</v>
       </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="79"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="71"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
@@ -2789,48 +2778,48 @@
       <c r="BF21" s="22"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="23"/>
-      <c r="BI21" s="41"/>
-      <c r="BJ21" s="43"/>
-      <c r="BK21" s="43"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="41"/>
+      <c r="BK21" s="41"/>
     </row>
     <row r="22" spans="1:63" ht="14.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="16">
         <v>43500</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="43">
         <v>43511</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="85">
         <v>3</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ref="F22:F24" si="2">NETWORKDAYS(C22,D22)</f>
         <v>10</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="31">
-        <v>0</v>
+      <c r="H22" s="30">
+        <v>0.15</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
       <c r="X22" s="22"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
@@ -2868,31 +2857,31 @@
       <c r="BF22" s="22"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="23"/>
-      <c r="BI22" s="41"/>
-      <c r="BJ22" s="43"/>
-      <c r="BK22" s="43"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="41"/>
+      <c r="BK22" s="41"/>
     </row>
     <row r="23" spans="1:63" ht="14.25">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="16">
         <v>43512</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="43">
         <v>43518</v>
       </c>
-      <c r="E23" s="93">
+      <c r="E23" s="85">
         <v>10</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="30">
         <v>0.05</v>
       </c>
       <c r="I23" s="19"/>
@@ -2910,11 +2899,11 @@
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
       <c r="AC23" s="23"/>
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
@@ -2947,31 +2936,31 @@
       <c r="BF23" s="22"/>
       <c r="BG23" s="23"/>
       <c r="BH23" s="23"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-    </row>
-    <row r="24" spans="1:63" s="36" customFormat="1" ht="14.25">
-      <c r="B24" s="40" t="s">
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="41"/>
+      <c r="BK23" s="41"/>
+    </row>
+    <row r="24" spans="1:63" ht="14.25">
+      <c r="B24" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="16">
         <v>43512</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="43">
         <v>43518</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E24" s="85">
         <v>10</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <v>0.05</v>
       </c>
       <c r="I24" s="19"/>
@@ -2989,11 +2978,11 @@
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
       <c r="AC24" s="23"/>
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
@@ -3026,31 +3015,31 @@
       <c r="BF24" s="22"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="23"/>
-      <c r="BI24" s="41"/>
-      <c r="BJ24" s="43"/>
-      <c r="BK24" s="43"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="41"/>
     </row>
     <row r="25" spans="1:63" ht="14.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="16">
         <v>43519</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="43">
         <v>43549</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="85">
         <v>15</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ref="F25" si="3">NETWORKDAYS(C25,D25)</f>
         <v>21</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="30">
         <v>0</v>
       </c>
       <c r="I25" s="19"/>
@@ -3073,27 +3062,27 @@
       <c r="Z25" s="22"/>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="80"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="80"/>
-      <c r="AR25" s="79"/>
-      <c r="AS25" s="79"/>
-      <c r="AT25" s="79"/>
-      <c r="AU25" s="79"/>
-      <c r="AV25" s="79"/>
-      <c r="AW25" s="78"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="71"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="71"/>
+      <c r="AS25" s="71"/>
+      <c r="AT25" s="71"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="71"/>
+      <c r="AW25" s="70"/>
       <c r="AX25" s="21"/>
       <c r="AY25" s="21"/>
       <c r="AZ25" s="21"/>
@@ -3105,21 +3094,21 @@
       <c r="BF25" s="22"/>
       <c r="BG25" s="23"/>
       <c r="BH25" s="23"/>
-      <c r="BI25" s="41"/>
-      <c r="BJ25" s="43"/>
-      <c r="BK25" s="43"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="41"/>
+      <c r="BK25" s="41"/>
     </row>
     <row r="26" spans="1:63">
       <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
       <c r="K26" s="28"/>
@@ -3173,38 +3162,38 @@
       <c r="BG26" s="26"/>
       <c r="BH26" s="26"/>
       <c r="BI26" s="26"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
+      <c r="BJ26" s="42"/>
+      <c r="BK26" s="42"/>
     </row>
     <row r="27" spans="1:63" ht="14.25">
       <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="16">
         <v>43494</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="16">
         <v>43500</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="84">
         <v>15</v>
       </c>
       <c r="F27" s="17">
         <f>NETWORKDAYS(C27,D27)</f>
         <v>5</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <v>1</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="64"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
@@ -3251,45 +3240,45 @@
       <c r="BF27" s="22"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="23"/>
-      <c r="BI27" s="41"/>
-      <c r="BJ27" s="43"/>
-      <c r="BK27" s="43"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="41"/>
+      <c r="BK27" s="41"/>
     </row>
     <row r="28" spans="1:63" ht="14.25">
       <c r="B28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="16">
         <v>43497</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="16">
         <v>43508</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="84">
         <v>5</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ref="F28:F33" si="4">NETWORKDAYS(C28,D28)</f>
         <v>8</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="31">
-        <v>0.25</v>
+      <c r="H28" s="30">
+        <v>1</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -3330,59 +3319,59 @@
       <c r="BF28" s="22"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="23"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="43"/>
-      <c r="BK28" s="43"/>
-    </row>
-    <row r="29" spans="1:63" s="36" customFormat="1" ht="14.25">
-      <c r="B29" s="40" t="s">
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="41"/>
+      <c r="BK28" s="41"/>
+    </row>
+    <row r="29" spans="1:63" ht="14.25">
+      <c r="B29" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="16">
         <v>43509</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="16">
         <v>43528</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="84">
         <v>20</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="H29" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="64"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="56"/>
       <c r="AI29" s="22"/>
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
@@ -3409,31 +3398,31 @@
       <c r="BF29" s="22"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="23"/>
-      <c r="BI29" s="41"/>
-      <c r="BJ29" s="43"/>
-      <c r="BK29" s="43"/>
-    </row>
-    <row r="30" spans="1:63" s="36" customFormat="1" ht="14.25">
-      <c r="B30" s="40" t="s">
+      <c r="BI29" s="39"/>
+      <c r="BJ29" s="41"/>
+      <c r="BK29" s="41"/>
+    </row>
+    <row r="30" spans="1:63" ht="14.25">
+      <c r="B30" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="16">
         <v>43549</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="16">
         <v>43560</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="84">
         <v>6</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <v>0</v>
       </c>
       <c r="I30" s="19"/>
@@ -3476,43 +3465,43 @@
       <c r="AT30" s="22"/>
       <c r="AU30" s="22"/>
       <c r="AV30" s="22"/>
-      <c r="AW30" s="66"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="66"/>
-      <c r="AZ30" s="66"/>
-      <c r="BA30" s="66"/>
-      <c r="BB30" s="67"/>
-      <c r="BC30" s="67"/>
-      <c r="BD30" s="67"/>
-      <c r="BE30" s="67"/>
-      <c r="BF30" s="67"/>
+      <c r="AW30" s="58"/>
+      <c r="AX30" s="58"/>
+      <c r="AY30" s="58"/>
+      <c r="AZ30" s="58"/>
+      <c r="BA30" s="58"/>
+      <c r="BB30" s="59"/>
+      <c r="BC30" s="59"/>
+      <c r="BD30" s="59"/>
+      <c r="BE30" s="59"/>
+      <c r="BF30" s="59"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="23"/>
-      <c r="BI30" s="41"/>
-      <c r="BJ30" s="43"/>
-      <c r="BK30" s="43"/>
+      <c r="BI30" s="39"/>
+      <c r="BJ30" s="41"/>
+      <c r="BK30" s="41"/>
     </row>
     <row r="31" spans="1:63" ht="14.25">
       <c r="B31" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="16">
         <v>43529</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="16">
         <v>43565</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="84">
         <v>20</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="30">
         <v>0.05</v>
       </c>
       <c r="I31" s="19"/>
@@ -3541,57 +3530,57 @@
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
       <c r="AH31" s="22"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="69"/>
-      <c r="AN31" s="69"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
-      <c r="AQ31" s="69"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="70"/>
-      <c r="AX31" s="70"/>
-      <c r="AY31" s="70"/>
-      <c r="AZ31" s="70"/>
-      <c r="BA31" s="70"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="69"/>
-      <c r="BH31" s="69"/>
-      <c r="BI31" s="71"/>
-      <c r="BJ31" s="43"/>
-      <c r="BK31" s="43"/>
-    </row>
-    <row r="32" spans="1:63" s="46" customFormat="1" ht="14.25">
-      <c r="B32" s="40" t="s">
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="61"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
+      <c r="AR31" s="60"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="60"/>
+      <c r="AU31" s="60"/>
+      <c r="AV31" s="60"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="62"/>
+      <c r="BA31" s="62"/>
+      <c r="BB31" s="60"/>
+      <c r="BC31" s="60"/>
+      <c r="BD31" s="60"/>
+      <c r="BE31" s="60"/>
+      <c r="BF31" s="60"/>
+      <c r="BG31" s="61"/>
+      <c r="BH31" s="61"/>
+      <c r="BI31" s="63"/>
+      <c r="BJ31" s="41"/>
+      <c r="BK31" s="41"/>
+    </row>
+    <row r="32" spans="1:63" ht="14.25">
+      <c r="B32" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="16">
         <v>43529</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="16">
         <v>43565</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="84">
         <v>5</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="30">
         <v>0</v>
       </c>
       <c r="I32" s="19"/>
@@ -3620,57 +3609,57 @@
       <c r="AF32" s="23"/>
       <c r="AG32" s="23"/>
       <c r="AH32" s="22"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="69"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="68"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="70"/>
-      <c r="AX32" s="70"/>
-      <c r="AY32" s="70"/>
-      <c r="AZ32" s="70"/>
-      <c r="BA32" s="70"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="68"/>
-      <c r="BG32" s="69"/>
-      <c r="BH32" s="69"/>
-      <c r="BI32" s="71"/>
-      <c r="BJ32" s="43"/>
-      <c r="BK32" s="43"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="60"/>
+      <c r="AS32" s="60"/>
+      <c r="AT32" s="60"/>
+      <c r="AU32" s="60"/>
+      <c r="AV32" s="60"/>
+      <c r="AW32" s="62"/>
+      <c r="AX32" s="62"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="62"/>
+      <c r="BA32" s="62"/>
+      <c r="BB32" s="60"/>
+      <c r="BC32" s="60"/>
+      <c r="BD32" s="60"/>
+      <c r="BE32" s="60"/>
+      <c r="BF32" s="60"/>
+      <c r="BG32" s="61"/>
+      <c r="BH32" s="61"/>
+      <c r="BI32" s="63"/>
+      <c r="BJ32" s="41"/>
+      <c r="BK32" s="41"/>
     </row>
     <row r="33" spans="1:63" ht="14.25">
       <c r="B33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="16">
         <v>43529</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="16">
         <v>43565</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="84">
         <v>10</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="30">
         <v>0</v>
       </c>
       <c r="I33" s="19"/>
@@ -3699,38 +3688,38 @@
       <c r="AF33" s="23"/>
       <c r="AG33" s="23"/>
       <c r="AH33" s="22"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="72"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="72"/>
-      <c r="AS33" s="72"/>
-      <c r="AT33" s="72"/>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="72"/>
-      <c r="AW33" s="74"/>
-      <c r="AX33" s="74"/>
-      <c r="AY33" s="74"/>
-      <c r="AZ33" s="74"/>
-      <c r="BA33" s="74"/>
-      <c r="BB33" s="72"/>
-      <c r="BC33" s="72"/>
-      <c r="BD33" s="72"/>
-      <c r="BE33" s="72"/>
-      <c r="BF33" s="72"/>
-      <c r="BG33" s="73"/>
-      <c r="BH33" s="73"/>
-      <c r="BI33" s="75"/>
-      <c r="BJ33" s="43"/>
-      <c r="BK33" s="43"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="66"/>
+      <c r="BA33" s="66"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="64"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="65"/>
+      <c r="BH33" s="65"/>
+      <c r="BI33" s="67"/>
+      <c r="BJ33" s="41"/>
+      <c r="BK33" s="41"/>
     </row>
     <row r="34" spans="1:63" ht="15.75" customHeight="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3740,2821 +3729,2821 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:63" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
     </row>
     <row r="36" spans="1:63" ht="12.75">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
     </row>
     <row r="37" spans="1:63" ht="12.75">
-      <c r="A37" s="34"/>
+      <c r="A37" s="33"/>
     </row>
     <row r="38" spans="1:63" ht="12.75">
-      <c r="A38" s="34"/>
+      <c r="A38" s="33"/>
     </row>
     <row r="39" spans="1:63" ht="12.75">
-      <c r="A39" s="34"/>
+      <c r="A39" s="33"/>
     </row>
     <row r="40" spans="1:63" ht="12.75">
-      <c r="A40" s="34"/>
+      <c r="A40" s="33"/>
     </row>
     <row r="41" spans="1:63" ht="12.75">
-      <c r="A41" s="34"/>
+      <c r="A41" s="33"/>
     </row>
     <row r="42" spans="1:63" ht="12.75">
-      <c r="A42" s="34"/>
+      <c r="A42" s="33"/>
     </row>
     <row r="43" spans="1:63" ht="12.75">
-      <c r="A43" s="34"/>
+      <c r="A43" s="33"/>
     </row>
     <row r="44" spans="1:63" ht="12.75">
-      <c r="A44" s="34"/>
+      <c r="A44" s="33"/>
     </row>
     <row r="45" spans="1:63" ht="12.75">
-      <c r="A45" s="34"/>
+      <c r="A45" s="33"/>
     </row>
     <row r="46" spans="1:63" ht="12.75">
-      <c r="A46" s="34"/>
+      <c r="A46" s="33"/>
     </row>
     <row r="47" spans="1:63" ht="12.75">
-      <c r="A47" s="34"/>
+      <c r="A47" s="33"/>
     </row>
     <row r="48" spans="1:63" ht="12.75">
-      <c r="A48" s="34"/>
+      <c r="A48" s="33"/>
     </row>
     <row r="49" spans="1:1" ht="12.75">
-      <c r="A49" s="34"/>
+      <c r="A49" s="33"/>
     </row>
     <row r="50" spans="1:1" ht="12.75">
-      <c r="A50" s="34"/>
+      <c r="A50" s="33"/>
     </row>
     <row r="51" spans="1:1" ht="12.75">
-      <c r="A51" s="34"/>
+      <c r="A51" s="33"/>
     </row>
     <row r="52" spans="1:1" ht="12.75">
-      <c r="A52" s="34"/>
+      <c r="A52" s="33"/>
     </row>
     <row r="53" spans="1:1" ht="12.75">
-      <c r="A53" s="34"/>
+      <c r="A53" s="33"/>
     </row>
     <row r="54" spans="1:1" ht="12.75">
-      <c r="A54" s="34"/>
+      <c r="A54" s="33"/>
     </row>
     <row r="55" spans="1:1" ht="12.75">
-      <c r="A55" s="34"/>
+      <c r="A55" s="33"/>
     </row>
     <row r="56" spans="1:1" ht="12.75">
-      <c r="A56" s="34"/>
+      <c r="A56" s="33"/>
     </row>
     <row r="57" spans="1:1" ht="12.75">
-      <c r="A57" s="34"/>
+      <c r="A57" s="33"/>
     </row>
     <row r="58" spans="1:1" ht="12.75">
-      <c r="A58" s="34"/>
+      <c r="A58" s="33"/>
     </row>
     <row r="59" spans="1:1" ht="12.75">
-      <c r="A59" s="34"/>
+      <c r="A59" s="33"/>
     </row>
     <row r="60" spans="1:1" ht="12.75">
-      <c r="A60" s="34"/>
+      <c r="A60" s="33"/>
     </row>
     <row r="61" spans="1:1" ht="12.75">
-      <c r="A61" s="34"/>
+      <c r="A61" s="33"/>
     </row>
     <row r="62" spans="1:1" ht="12.75">
-      <c r="A62" s="34"/>
+      <c r="A62" s="33"/>
     </row>
     <row r="63" spans="1:1" ht="12.75">
-      <c r="A63" s="34"/>
+      <c r="A63" s="33"/>
     </row>
     <row r="64" spans="1:1" ht="12.75">
-      <c r="A64" s="34"/>
+      <c r="A64" s="33"/>
     </row>
     <row r="65" spans="1:1" ht="12.75">
-      <c r="A65" s="34"/>
+      <c r="A65" s="33"/>
     </row>
     <row r="66" spans="1:1" ht="12.75">
-      <c r="A66" s="34"/>
+      <c r="A66" s="33"/>
     </row>
     <row r="67" spans="1:1" ht="12.75">
-      <c r="A67" s="34"/>
+      <c r="A67" s="33"/>
     </row>
     <row r="68" spans="1:1" ht="12.75">
-      <c r="A68" s="34"/>
+      <c r="A68" s="33"/>
     </row>
     <row r="69" spans="1:1" ht="12.75">
-      <c r="A69" s="34"/>
+      <c r="A69" s="33"/>
     </row>
     <row r="70" spans="1:1" ht="12.75">
-      <c r="A70" s="34"/>
+      <c r="A70" s="33"/>
     </row>
     <row r="71" spans="1:1" ht="12.75">
-      <c r="A71" s="34"/>
+      <c r="A71" s="33"/>
     </row>
     <row r="72" spans="1:1" ht="12.75">
-      <c r="A72" s="34"/>
+      <c r="A72" s="33"/>
     </row>
     <row r="73" spans="1:1" ht="12.75">
-      <c r="A73" s="34"/>
+      <c r="A73" s="33"/>
     </row>
     <row r="74" spans="1:1" ht="12.75">
-      <c r="A74" s="34"/>
+      <c r="A74" s="33"/>
     </row>
     <row r="75" spans="1:1" ht="12.75">
-      <c r="A75" s="34"/>
+      <c r="A75" s="33"/>
     </row>
     <row r="76" spans="1:1" ht="12.75">
-      <c r="A76" s="34"/>
+      <c r="A76" s="33"/>
     </row>
     <row r="77" spans="1:1" ht="12.75">
-      <c r="A77" s="34"/>
+      <c r="A77" s="33"/>
     </row>
     <row r="78" spans="1:1" ht="12.75">
-      <c r="A78" s="34"/>
+      <c r="A78" s="33"/>
     </row>
     <row r="79" spans="1:1" ht="12.75">
-      <c r="A79" s="34"/>
+      <c r="A79" s="33"/>
     </row>
     <row r="80" spans="1:1" ht="12.75">
-      <c r="A80" s="34"/>
+      <c r="A80" s="33"/>
     </row>
     <row r="81" spans="1:1" ht="12.75">
-      <c r="A81" s="34"/>
+      <c r="A81" s="33"/>
     </row>
     <row r="82" spans="1:1" ht="12.75">
-      <c r="A82" s="34"/>
+      <c r="A82" s="33"/>
     </row>
     <row r="83" spans="1:1" ht="12.75">
-      <c r="A83" s="34"/>
+      <c r="A83" s="33"/>
     </row>
     <row r="84" spans="1:1" ht="12.75">
-      <c r="A84" s="34"/>
+      <c r="A84" s="33"/>
     </row>
     <row r="85" spans="1:1" ht="12.75">
-      <c r="A85" s="34"/>
+      <c r="A85" s="33"/>
     </row>
     <row r="86" spans="1:1" ht="12.75">
-      <c r="A86" s="34"/>
+      <c r="A86" s="33"/>
     </row>
     <row r="87" spans="1:1" ht="12.75">
-      <c r="A87" s="34"/>
+      <c r="A87" s="33"/>
     </row>
     <row r="88" spans="1:1" ht="12.75">
-      <c r="A88" s="34"/>
+      <c r="A88" s="33"/>
     </row>
     <row r="89" spans="1:1" ht="12.75">
-      <c r="A89" s="34"/>
+      <c r="A89" s="33"/>
     </row>
     <row r="90" spans="1:1" ht="12.75">
-      <c r="A90" s="34"/>
+      <c r="A90" s="33"/>
     </row>
     <row r="91" spans="1:1" ht="12.75">
-      <c r="A91" s="34"/>
+      <c r="A91" s="33"/>
     </row>
     <row r="92" spans="1:1" ht="12.75">
-      <c r="A92" s="34"/>
+      <c r="A92" s="33"/>
     </row>
     <row r="93" spans="1:1" ht="12.75">
-      <c r="A93" s="34"/>
+      <c r="A93" s="33"/>
     </row>
     <row r="94" spans="1:1" ht="12.75">
-      <c r="A94" s="34"/>
+      <c r="A94" s="33"/>
     </row>
     <row r="95" spans="1:1" ht="12.75">
-      <c r="A95" s="34"/>
+      <c r="A95" s="33"/>
     </row>
     <row r="96" spans="1:1" ht="12.75">
-      <c r="A96" s="34"/>
+      <c r="A96" s="33"/>
     </row>
     <row r="97" spans="1:1" ht="12.75">
-      <c r="A97" s="34"/>
+      <c r="A97" s="33"/>
     </row>
     <row r="98" spans="1:1" ht="12.75">
-      <c r="A98" s="34"/>
+      <c r="A98" s="33"/>
     </row>
     <row r="99" spans="1:1" ht="12.75">
-      <c r="A99" s="34"/>
+      <c r="A99" s="33"/>
     </row>
     <row r="100" spans="1:1" ht="12.75">
-      <c r="A100" s="34"/>
+      <c r="A100" s="33"/>
     </row>
     <row r="101" spans="1:1" ht="12.75">
-      <c r="A101" s="34"/>
+      <c r="A101" s="33"/>
     </row>
     <row r="102" spans="1:1" ht="12.75">
-      <c r="A102" s="34"/>
+      <c r="A102" s="33"/>
     </row>
     <row r="103" spans="1:1" ht="12.75">
-      <c r="A103" s="34"/>
+      <c r="A103" s="33"/>
     </row>
     <row r="104" spans="1:1" ht="12.75">
-      <c r="A104" s="34"/>
+      <c r="A104" s="33"/>
     </row>
     <row r="105" spans="1:1" ht="12.75">
-      <c r="A105" s="34"/>
+      <c r="A105" s="33"/>
     </row>
     <row r="106" spans="1:1" ht="12.75">
-      <c r="A106" s="34"/>
+      <c r="A106" s="33"/>
     </row>
     <row r="107" spans="1:1" ht="12.75">
-      <c r="A107" s="34"/>
+      <c r="A107" s="33"/>
     </row>
     <row r="108" spans="1:1" ht="12.75">
-      <c r="A108" s="34"/>
+      <c r="A108" s="33"/>
     </row>
     <row r="109" spans="1:1" ht="12.75">
-      <c r="A109" s="34"/>
+      <c r="A109" s="33"/>
     </row>
     <row r="110" spans="1:1" ht="12.75">
-      <c r="A110" s="34"/>
+      <c r="A110" s="33"/>
     </row>
     <row r="111" spans="1:1" ht="12.75">
-      <c r="A111" s="34"/>
+      <c r="A111" s="33"/>
     </row>
     <row r="112" spans="1:1" ht="12.75">
-      <c r="A112" s="34"/>
+      <c r="A112" s="33"/>
     </row>
     <row r="113" spans="1:1" ht="12.75">
-      <c r="A113" s="34"/>
+      <c r="A113" s="33"/>
     </row>
     <row r="114" spans="1:1" ht="12.75">
-      <c r="A114" s="34"/>
+      <c r="A114" s="33"/>
     </row>
     <row r="115" spans="1:1" ht="12.75">
-      <c r="A115" s="34"/>
+      <c r="A115" s="33"/>
     </row>
     <row r="116" spans="1:1" ht="12.75">
-      <c r="A116" s="34"/>
+      <c r="A116" s="33"/>
     </row>
     <row r="117" spans="1:1" ht="12.75">
-      <c r="A117" s="34"/>
+      <c r="A117" s="33"/>
     </row>
     <row r="118" spans="1:1" ht="12.75">
-      <c r="A118" s="34"/>
+      <c r="A118" s="33"/>
     </row>
     <row r="119" spans="1:1" ht="12.75">
-      <c r="A119" s="34"/>
+      <c r="A119" s="33"/>
     </row>
     <row r="120" spans="1:1" ht="12.75">
-      <c r="A120" s="34"/>
+      <c r="A120" s="33"/>
     </row>
     <row r="121" spans="1:1" ht="12.75">
-      <c r="A121" s="34"/>
+      <c r="A121" s="33"/>
     </row>
     <row r="122" spans="1:1" ht="12.75">
-      <c r="A122" s="34"/>
+      <c r="A122" s="33"/>
     </row>
     <row r="123" spans="1:1" ht="12.75">
-      <c r="A123" s="34"/>
+      <c r="A123" s="33"/>
     </row>
     <row r="124" spans="1:1" ht="12.75">
-      <c r="A124" s="34"/>
+      <c r="A124" s="33"/>
     </row>
     <row r="125" spans="1:1" ht="12.75">
-      <c r="A125" s="34"/>
+      <c r="A125" s="33"/>
     </row>
     <row r="126" spans="1:1" ht="12.75">
-      <c r="A126" s="34"/>
+      <c r="A126" s="33"/>
     </row>
     <row r="127" spans="1:1" ht="12.75">
-      <c r="A127" s="34"/>
+      <c r="A127" s="33"/>
     </row>
     <row r="128" spans="1:1" ht="12.75">
-      <c r="A128" s="34"/>
+      <c r="A128" s="33"/>
     </row>
     <row r="129" spans="1:1" ht="12.75">
-      <c r="A129" s="34"/>
+      <c r="A129" s="33"/>
     </row>
     <row r="130" spans="1:1" ht="12.75">
-      <c r="A130" s="34"/>
+      <c r="A130" s="33"/>
     </row>
     <row r="131" spans="1:1" ht="12.75">
-      <c r="A131" s="34"/>
+      <c r="A131" s="33"/>
     </row>
     <row r="132" spans="1:1" ht="12.75">
-      <c r="A132" s="34"/>
+      <c r="A132" s="33"/>
     </row>
     <row r="133" spans="1:1" ht="12.75">
-      <c r="A133" s="34"/>
+      <c r="A133" s="33"/>
     </row>
     <row r="134" spans="1:1" ht="12.75">
-      <c r="A134" s="34"/>
+      <c r="A134" s="33"/>
     </row>
     <row r="135" spans="1:1" ht="12.75">
-      <c r="A135" s="34"/>
+      <c r="A135" s="33"/>
     </row>
     <row r="136" spans="1:1" ht="12.75">
-      <c r="A136" s="34"/>
+      <c r="A136" s="33"/>
     </row>
     <row r="137" spans="1:1" ht="12.75">
-      <c r="A137" s="34"/>
+      <c r="A137" s="33"/>
     </row>
     <row r="138" spans="1:1" ht="12.75">
-      <c r="A138" s="34"/>
+      <c r="A138" s="33"/>
     </row>
     <row r="139" spans="1:1" ht="12.75">
-      <c r="A139" s="34"/>
+      <c r="A139" s="33"/>
     </row>
     <row r="140" spans="1:1" ht="12.75">
-      <c r="A140" s="34"/>
+      <c r="A140" s="33"/>
     </row>
     <row r="141" spans="1:1" ht="12.75">
-      <c r="A141" s="34"/>
+      <c r="A141" s="33"/>
     </row>
     <row r="142" spans="1:1" ht="12.75">
-      <c r="A142" s="34"/>
+      <c r="A142" s="33"/>
     </row>
     <row r="143" spans="1:1" ht="12.75">
-      <c r="A143" s="34"/>
+      <c r="A143" s="33"/>
     </row>
     <row r="144" spans="1:1" ht="12.75">
-      <c r="A144" s="34"/>
+      <c r="A144" s="33"/>
     </row>
     <row r="145" spans="1:1" ht="12.75">
-      <c r="A145" s="34"/>
+      <c r="A145" s="33"/>
     </row>
     <row r="146" spans="1:1" ht="12.75">
-      <c r="A146" s="34"/>
+      <c r="A146" s="33"/>
     </row>
     <row r="147" spans="1:1" ht="12.75">
-      <c r="A147" s="34"/>
+      <c r="A147" s="33"/>
     </row>
     <row r="148" spans="1:1" ht="12.75">
-      <c r="A148" s="34"/>
+      <c r="A148" s="33"/>
     </row>
     <row r="149" spans="1:1" ht="12.75">
-      <c r="A149" s="34"/>
+      <c r="A149" s="33"/>
     </row>
     <row r="150" spans="1:1" ht="12.75">
-      <c r="A150" s="34"/>
+      <c r="A150" s="33"/>
     </row>
     <row r="151" spans="1:1" ht="12.75">
-      <c r="A151" s="34"/>
+      <c r="A151" s="33"/>
     </row>
     <row r="152" spans="1:1" ht="12.75">
-      <c r="A152" s="34"/>
+      <c r="A152" s="33"/>
     </row>
     <row r="153" spans="1:1" ht="12.75">
-      <c r="A153" s="34"/>
+      <c r="A153" s="33"/>
     </row>
     <row r="154" spans="1:1" ht="12.75">
-      <c r="A154" s="34"/>
+      <c r="A154" s="33"/>
     </row>
     <row r="155" spans="1:1" ht="12.75">
-      <c r="A155" s="34"/>
+      <c r="A155" s="33"/>
     </row>
     <row r="156" spans="1:1" ht="12.75">
-      <c r="A156" s="34"/>
+      <c r="A156" s="33"/>
     </row>
     <row r="157" spans="1:1" ht="12.75">
-      <c r="A157" s="34"/>
+      <c r="A157" s="33"/>
     </row>
     <row r="158" spans="1:1" ht="12.75">
-      <c r="A158" s="34"/>
+      <c r="A158" s="33"/>
     </row>
     <row r="159" spans="1:1" ht="12.75">
-      <c r="A159" s="34"/>
+      <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" ht="12.75">
-      <c r="A160" s="34"/>
+      <c r="A160" s="33"/>
     </row>
     <row r="161" spans="1:1" ht="12.75">
-      <c r="A161" s="34"/>
+      <c r="A161" s="33"/>
     </row>
     <row r="162" spans="1:1" ht="12.75">
-      <c r="A162" s="34"/>
+      <c r="A162" s="33"/>
     </row>
     <row r="163" spans="1:1" ht="12.75">
-      <c r="A163" s="34"/>
+      <c r="A163" s="33"/>
     </row>
     <row r="164" spans="1:1" ht="12.75">
-      <c r="A164" s="34"/>
+      <c r="A164" s="33"/>
     </row>
     <row r="165" spans="1:1" ht="12.75">
-      <c r="A165" s="34"/>
+      <c r="A165" s="33"/>
     </row>
     <row r="166" spans="1:1" ht="12.75">
-      <c r="A166" s="34"/>
+      <c r="A166" s="33"/>
     </row>
     <row r="167" spans="1:1" ht="12.75">
-      <c r="A167" s="34"/>
+      <c r="A167" s="33"/>
     </row>
     <row r="168" spans="1:1" ht="12.75">
-      <c r="A168" s="34"/>
+      <c r="A168" s="33"/>
     </row>
     <row r="169" spans="1:1" ht="12.75">
-      <c r="A169" s="34"/>
+      <c r="A169" s="33"/>
     </row>
     <row r="170" spans="1:1" ht="12.75">
-      <c r="A170" s="34"/>
+      <c r="A170" s="33"/>
     </row>
     <row r="171" spans="1:1" ht="12.75">
-      <c r="A171" s="34"/>
+      <c r="A171" s="33"/>
     </row>
     <row r="172" spans="1:1" ht="12.75">
-      <c r="A172" s="34"/>
+      <c r="A172" s="33"/>
     </row>
     <row r="173" spans="1:1" ht="12.75">
-      <c r="A173" s="34"/>
+      <c r="A173" s="33"/>
     </row>
     <row r="174" spans="1:1" ht="12.75">
-      <c r="A174" s="34"/>
+      <c r="A174" s="33"/>
     </row>
     <row r="175" spans="1:1" ht="12.75">
-      <c r="A175" s="34"/>
+      <c r="A175" s="33"/>
     </row>
     <row r="176" spans="1:1" ht="12.75">
-      <c r="A176" s="34"/>
+      <c r="A176" s="33"/>
     </row>
     <row r="177" spans="1:1" ht="12.75">
-      <c r="A177" s="34"/>
+      <c r="A177" s="33"/>
     </row>
     <row r="178" spans="1:1" ht="12.75">
-      <c r="A178" s="34"/>
+      <c r="A178" s="33"/>
     </row>
     <row r="179" spans="1:1" ht="12.75">
-      <c r="A179" s="34"/>
+      <c r="A179" s="33"/>
     </row>
     <row r="180" spans="1:1" ht="12.75">
-      <c r="A180" s="34"/>
+      <c r="A180" s="33"/>
     </row>
     <row r="181" spans="1:1" ht="12.75">
-      <c r="A181" s="34"/>
+      <c r="A181" s="33"/>
     </row>
     <row r="182" spans="1:1" ht="12.75">
-      <c r="A182" s="34"/>
+      <c r="A182" s="33"/>
     </row>
     <row r="183" spans="1:1" ht="12.75">
-      <c r="A183" s="34"/>
+      <c r="A183" s="33"/>
     </row>
     <row r="184" spans="1:1" ht="12.75">
-      <c r="A184" s="34"/>
+      <c r="A184" s="33"/>
     </row>
     <row r="185" spans="1:1" ht="12.75">
-      <c r="A185" s="34"/>
+      <c r="A185" s="33"/>
     </row>
     <row r="186" spans="1:1" ht="12.75">
-      <c r="A186" s="34"/>
+      <c r="A186" s="33"/>
     </row>
     <row r="187" spans="1:1" ht="12.75">
-      <c r="A187" s="34"/>
+      <c r="A187" s="33"/>
     </row>
     <row r="188" spans="1:1" ht="12.75">
-      <c r="A188" s="34"/>
+      <c r="A188" s="33"/>
     </row>
     <row r="189" spans="1:1" ht="12.75">
-      <c r="A189" s="34"/>
+      <c r="A189" s="33"/>
     </row>
     <row r="190" spans="1:1" ht="12.75">
-      <c r="A190" s="34"/>
+      <c r="A190" s="33"/>
     </row>
     <row r="191" spans="1:1" ht="12.75">
-      <c r="A191" s="34"/>
+      <c r="A191" s="33"/>
     </row>
     <row r="192" spans="1:1" ht="12.75">
-      <c r="A192" s="34"/>
+      <c r="A192" s="33"/>
     </row>
     <row r="193" spans="1:1" ht="12.75">
-      <c r="A193" s="34"/>
+      <c r="A193" s="33"/>
     </row>
     <row r="194" spans="1:1" ht="12.75">
-      <c r="A194" s="34"/>
+      <c r="A194" s="33"/>
     </row>
     <row r="195" spans="1:1" ht="12.75">
-      <c r="A195" s="34"/>
+      <c r="A195" s="33"/>
     </row>
     <row r="196" spans="1:1" ht="12.75">
-      <c r="A196" s="34"/>
+      <c r="A196" s="33"/>
     </row>
     <row r="197" spans="1:1" ht="12.75">
-      <c r="A197" s="34"/>
+      <c r="A197" s="33"/>
     </row>
     <row r="198" spans="1:1" ht="12.75">
-      <c r="A198" s="34"/>
+      <c r="A198" s="33"/>
     </row>
     <row r="199" spans="1:1" ht="12.75">
-      <c r="A199" s="34"/>
+      <c r="A199" s="33"/>
     </row>
     <row r="200" spans="1:1" ht="12.75">
-      <c r="A200" s="34"/>
+      <c r="A200" s="33"/>
     </row>
     <row r="201" spans="1:1" ht="12.75">
-      <c r="A201" s="34"/>
+      <c r="A201" s="33"/>
     </row>
     <row r="202" spans="1:1" ht="12.75">
-      <c r="A202" s="34"/>
+      <c r="A202" s="33"/>
     </row>
     <row r="203" spans="1:1" ht="12.75">
-      <c r="A203" s="34"/>
+      <c r="A203" s="33"/>
     </row>
     <row r="204" spans="1:1" ht="12.75">
-      <c r="A204" s="34"/>
+      <c r="A204" s="33"/>
     </row>
     <row r="205" spans="1:1" ht="12.75">
-      <c r="A205" s="34"/>
+      <c r="A205" s="33"/>
     </row>
     <row r="206" spans="1:1" ht="12.75">
-      <c r="A206" s="34"/>
+      <c r="A206" s="33"/>
     </row>
     <row r="207" spans="1:1" ht="12.75">
-      <c r="A207" s="34"/>
+      <c r="A207" s="33"/>
     </row>
     <row r="208" spans="1:1" ht="12.75">
-      <c r="A208" s="34"/>
+      <c r="A208" s="33"/>
     </row>
     <row r="209" spans="1:1" ht="12.75">
-      <c r="A209" s="34"/>
+      <c r="A209" s="33"/>
     </row>
     <row r="210" spans="1:1" ht="12.75">
-      <c r="A210" s="34"/>
+      <c r="A210" s="33"/>
     </row>
     <row r="211" spans="1:1" ht="12.75">
-      <c r="A211" s="34"/>
+      <c r="A211" s="33"/>
     </row>
     <row r="212" spans="1:1" ht="12.75">
-      <c r="A212" s="34"/>
+      <c r="A212" s="33"/>
     </row>
     <row r="213" spans="1:1" ht="12.75">
-      <c r="A213" s="34"/>
+      <c r="A213" s="33"/>
     </row>
     <row r="214" spans="1:1" ht="12.75">
-      <c r="A214" s="34"/>
+      <c r="A214" s="33"/>
     </row>
     <row r="215" spans="1:1" ht="12.75">
-      <c r="A215" s="34"/>
+      <c r="A215" s="33"/>
     </row>
     <row r="216" spans="1:1" ht="12.75">
-      <c r="A216" s="34"/>
+      <c r="A216" s="33"/>
     </row>
     <row r="217" spans="1:1" ht="12.75">
-      <c r="A217" s="34"/>
+      <c r="A217" s="33"/>
     </row>
     <row r="218" spans="1:1" ht="12.75">
-      <c r="A218" s="34"/>
+      <c r="A218" s="33"/>
     </row>
     <row r="219" spans="1:1" ht="12.75">
-      <c r="A219" s="34"/>
+      <c r="A219" s="33"/>
     </row>
     <row r="220" spans="1:1" ht="12.75">
-      <c r="A220" s="34"/>
+      <c r="A220" s="33"/>
     </row>
     <row r="221" spans="1:1" ht="12.75">
-      <c r="A221" s="34"/>
+      <c r="A221" s="33"/>
     </row>
     <row r="222" spans="1:1" ht="12.75">
-      <c r="A222" s="34"/>
+      <c r="A222" s="33"/>
     </row>
     <row r="223" spans="1:1" ht="12.75">
-      <c r="A223" s="34"/>
+      <c r="A223" s="33"/>
     </row>
     <row r="224" spans="1:1" ht="12.75">
-      <c r="A224" s="34"/>
+      <c r="A224" s="33"/>
     </row>
     <row r="225" spans="1:1" ht="12.75">
-      <c r="A225" s="34"/>
+      <c r="A225" s="33"/>
     </row>
     <row r="226" spans="1:1" ht="12.75">
-      <c r="A226" s="34"/>
+      <c r="A226" s="33"/>
     </row>
     <row r="227" spans="1:1" ht="12.75">
-      <c r="A227" s="34"/>
+      <c r="A227" s="33"/>
     </row>
     <row r="228" spans="1:1" ht="12.75">
-      <c r="A228" s="34"/>
+      <c r="A228" s="33"/>
     </row>
     <row r="229" spans="1:1" ht="12.75">
-      <c r="A229" s="34"/>
+      <c r="A229" s="33"/>
     </row>
     <row r="230" spans="1:1" ht="12.75">
-      <c r="A230" s="34"/>
+      <c r="A230" s="33"/>
     </row>
     <row r="231" spans="1:1" ht="12.75">
-      <c r="A231" s="34"/>
+      <c r="A231" s="33"/>
     </row>
     <row r="232" spans="1:1" ht="12.75">
-      <c r="A232" s="34"/>
+      <c r="A232" s="33"/>
     </row>
     <row r="233" spans="1:1" ht="12.75">
-      <c r="A233" s="34"/>
+      <c r="A233" s="33"/>
     </row>
     <row r="234" spans="1:1" ht="12.75">
-      <c r="A234" s="34"/>
+      <c r="A234" s="33"/>
     </row>
     <row r="235" spans="1:1" ht="12.75">
-      <c r="A235" s="34"/>
+      <c r="A235" s="33"/>
     </row>
     <row r="236" spans="1:1" ht="12.75">
-      <c r="A236" s="34"/>
+      <c r="A236" s="33"/>
     </row>
     <row r="237" spans="1:1" ht="12.75">
-      <c r="A237" s="34"/>
+      <c r="A237" s="33"/>
     </row>
     <row r="238" spans="1:1" ht="12.75">
-      <c r="A238" s="34"/>
+      <c r="A238" s="33"/>
     </row>
     <row r="239" spans="1:1" ht="12.75">
-      <c r="A239" s="34"/>
+      <c r="A239" s="33"/>
     </row>
     <row r="240" spans="1:1" ht="12.75">
-      <c r="A240" s="34"/>
+      <c r="A240" s="33"/>
     </row>
     <row r="241" spans="1:1" ht="12.75">
-      <c r="A241" s="34"/>
+      <c r="A241" s="33"/>
     </row>
     <row r="242" spans="1:1" ht="12.75">
-      <c r="A242" s="34"/>
+      <c r="A242" s="33"/>
     </row>
     <row r="243" spans="1:1" ht="12.75">
-      <c r="A243" s="34"/>
+      <c r="A243" s="33"/>
     </row>
     <row r="244" spans="1:1" ht="12.75">
-      <c r="A244" s="34"/>
+      <c r="A244" s="33"/>
     </row>
     <row r="245" spans="1:1" ht="12.75">
-      <c r="A245" s="34"/>
+      <c r="A245" s="33"/>
     </row>
     <row r="246" spans="1:1" ht="12.75">
-      <c r="A246" s="34"/>
+      <c r="A246" s="33"/>
     </row>
     <row r="247" spans="1:1" ht="12.75">
-      <c r="A247" s="34"/>
+      <c r="A247" s="33"/>
     </row>
     <row r="248" spans="1:1" ht="12.75">
-      <c r="A248" s="34"/>
+      <c r="A248" s="33"/>
     </row>
     <row r="249" spans="1:1" ht="12.75">
-      <c r="A249" s="34"/>
+      <c r="A249" s="33"/>
     </row>
     <row r="250" spans="1:1" ht="12.75">
-      <c r="A250" s="34"/>
+      <c r="A250" s="33"/>
     </row>
     <row r="251" spans="1:1" ht="12.75">
-      <c r="A251" s="34"/>
+      <c r="A251" s="33"/>
     </row>
     <row r="252" spans="1:1" ht="12.75">
-      <c r="A252" s="34"/>
+      <c r="A252" s="33"/>
     </row>
     <row r="253" spans="1:1" ht="12.75">
-      <c r="A253" s="34"/>
+      <c r="A253" s="33"/>
     </row>
     <row r="254" spans="1:1" ht="12.75">
-      <c r="A254" s="34"/>
+      <c r="A254" s="33"/>
     </row>
     <row r="255" spans="1:1" ht="12.75">
-      <c r="A255" s="34"/>
+      <c r="A255" s="33"/>
     </row>
     <row r="256" spans="1:1" ht="12.75">
-      <c r="A256" s="34"/>
+      <c r="A256" s="33"/>
     </row>
     <row r="257" spans="1:1" ht="12.75">
-      <c r="A257" s="34"/>
+      <c r="A257" s="33"/>
     </row>
     <row r="258" spans="1:1" ht="12.75">
-      <c r="A258" s="34"/>
+      <c r="A258" s="33"/>
     </row>
     <row r="259" spans="1:1" ht="12.75">
-      <c r="A259" s="34"/>
+      <c r="A259" s="33"/>
     </row>
     <row r="260" spans="1:1" ht="12.75">
-      <c r="A260" s="34"/>
+      <c r="A260" s="33"/>
     </row>
     <row r="261" spans="1:1" ht="12.75">
-      <c r="A261" s="34"/>
+      <c r="A261" s="33"/>
     </row>
     <row r="262" spans="1:1" ht="12.75">
-      <c r="A262" s="34"/>
+      <c r="A262" s="33"/>
     </row>
     <row r="263" spans="1:1" ht="12.75">
-      <c r="A263" s="34"/>
+      <c r="A263" s="33"/>
     </row>
     <row r="264" spans="1:1" ht="12.75">
-      <c r="A264" s="34"/>
+      <c r="A264" s="33"/>
     </row>
     <row r="265" spans="1:1" ht="12.75">
-      <c r="A265" s="34"/>
+      <c r="A265" s="33"/>
     </row>
     <row r="266" spans="1:1" ht="12.75">
-      <c r="A266" s="34"/>
+      <c r="A266" s="33"/>
     </row>
     <row r="267" spans="1:1" ht="12.75">
-      <c r="A267" s="34"/>
+      <c r="A267" s="33"/>
     </row>
     <row r="268" spans="1:1" ht="12.75">
-      <c r="A268" s="34"/>
+      <c r="A268" s="33"/>
     </row>
     <row r="269" spans="1:1" ht="12.75">
-      <c r="A269" s="34"/>
+      <c r="A269" s="33"/>
     </row>
     <row r="270" spans="1:1" ht="12.75">
-      <c r="A270" s="34"/>
+      <c r="A270" s="33"/>
     </row>
     <row r="271" spans="1:1" ht="12.75">
-      <c r="A271" s="34"/>
+      <c r="A271" s="33"/>
     </row>
     <row r="272" spans="1:1" ht="12.75">
-      <c r="A272" s="34"/>
+      <c r="A272" s="33"/>
     </row>
     <row r="273" spans="1:1" ht="12.75">
-      <c r="A273" s="34"/>
+      <c r="A273" s="33"/>
     </row>
     <row r="274" spans="1:1" ht="12.75">
-      <c r="A274" s="34"/>
+      <c r="A274" s="33"/>
     </row>
     <row r="275" spans="1:1" ht="12.75">
-      <c r="A275" s="34"/>
+      <c r="A275" s="33"/>
     </row>
     <row r="276" spans="1:1" ht="12.75">
-      <c r="A276" s="34"/>
+      <c r="A276" s="33"/>
     </row>
     <row r="277" spans="1:1" ht="12.75">
-      <c r="A277" s="34"/>
+      <c r="A277" s="33"/>
     </row>
     <row r="278" spans="1:1" ht="12.75">
-      <c r="A278" s="34"/>
+      <c r="A278" s="33"/>
     </row>
     <row r="279" spans="1:1" ht="12.75">
-      <c r="A279" s="34"/>
+      <c r="A279" s="33"/>
     </row>
     <row r="280" spans="1:1" ht="12.75">
-      <c r="A280" s="34"/>
+      <c r="A280" s="33"/>
     </row>
     <row r="281" spans="1:1" ht="12.75">
-      <c r="A281" s="34"/>
+      <c r="A281" s="33"/>
     </row>
     <row r="282" spans="1:1" ht="12.75">
-      <c r="A282" s="34"/>
+      <c r="A282" s="33"/>
     </row>
     <row r="283" spans="1:1" ht="12.75">
-      <c r="A283" s="34"/>
+      <c r="A283" s="33"/>
     </row>
     <row r="284" spans="1:1" ht="12.75">
-      <c r="A284" s="34"/>
+      <c r="A284" s="33"/>
     </row>
     <row r="285" spans="1:1" ht="12.75">
-      <c r="A285" s="34"/>
+      <c r="A285" s="33"/>
     </row>
     <row r="286" spans="1:1" ht="12.75">
-      <c r="A286" s="34"/>
+      <c r="A286" s="33"/>
     </row>
     <row r="287" spans="1:1" ht="12.75">
-      <c r="A287" s="34"/>
+      <c r="A287" s="33"/>
     </row>
     <row r="288" spans="1:1" ht="12.75">
-      <c r="A288" s="34"/>
+      <c r="A288" s="33"/>
     </row>
     <row r="289" spans="1:1" ht="12.75">
-      <c r="A289" s="34"/>
+      <c r="A289" s="33"/>
     </row>
     <row r="290" spans="1:1" ht="12.75">
-      <c r="A290" s="34"/>
+      <c r="A290" s="33"/>
     </row>
     <row r="291" spans="1:1" ht="12.75">
-      <c r="A291" s="34"/>
+      <c r="A291" s="33"/>
     </row>
     <row r="292" spans="1:1" ht="12.75">
-      <c r="A292" s="34"/>
+      <c r="A292" s="33"/>
     </row>
     <row r="293" spans="1:1" ht="12.75">
-      <c r="A293" s="34"/>
+      <c r="A293" s="33"/>
     </row>
     <row r="294" spans="1:1" ht="12.75">
-      <c r="A294" s="34"/>
+      <c r="A294" s="33"/>
     </row>
     <row r="295" spans="1:1" ht="12.75">
-      <c r="A295" s="34"/>
+      <c r="A295" s="33"/>
     </row>
     <row r="296" spans="1:1" ht="12.75">
-      <c r="A296" s="34"/>
+      <c r="A296" s="33"/>
     </row>
     <row r="297" spans="1:1" ht="12.75">
-      <c r="A297" s="34"/>
+      <c r="A297" s="33"/>
     </row>
     <row r="298" spans="1:1" ht="12.75">
-      <c r="A298" s="34"/>
+      <c r="A298" s="33"/>
     </row>
     <row r="299" spans="1:1" ht="12.75">
-      <c r="A299" s="34"/>
+      <c r="A299" s="33"/>
     </row>
     <row r="300" spans="1:1" ht="12.75">
-      <c r="A300" s="34"/>
+      <c r="A300" s="33"/>
     </row>
     <row r="301" spans="1:1" ht="12.75">
-      <c r="A301" s="34"/>
+      <c r="A301" s="33"/>
     </row>
     <row r="302" spans="1:1" ht="12.75">
-      <c r="A302" s="34"/>
+      <c r="A302" s="33"/>
     </row>
     <row r="303" spans="1:1" ht="12.75">
-      <c r="A303" s="34"/>
+      <c r="A303" s="33"/>
     </row>
     <row r="304" spans="1:1" ht="12.75">
-      <c r="A304" s="34"/>
+      <c r="A304" s="33"/>
     </row>
     <row r="305" spans="1:1" ht="12.75">
-      <c r="A305" s="34"/>
+      <c r="A305" s="33"/>
     </row>
     <row r="306" spans="1:1" ht="12.75">
-      <c r="A306" s="34"/>
+      <c r="A306" s="33"/>
     </row>
     <row r="307" spans="1:1" ht="12.75">
-      <c r="A307" s="34"/>
+      <c r="A307" s="33"/>
     </row>
     <row r="308" spans="1:1" ht="12.75">
-      <c r="A308" s="34"/>
+      <c r="A308" s="33"/>
     </row>
     <row r="309" spans="1:1" ht="12.75">
-      <c r="A309" s="34"/>
+      <c r="A309" s="33"/>
     </row>
     <row r="310" spans="1:1" ht="12.75">
-      <c r="A310" s="34"/>
+      <c r="A310" s="33"/>
     </row>
     <row r="311" spans="1:1" ht="12.75">
-      <c r="A311" s="34"/>
+      <c r="A311" s="33"/>
     </row>
     <row r="312" spans="1:1" ht="12.75">
-      <c r="A312" s="34"/>
+      <c r="A312" s="33"/>
     </row>
     <row r="313" spans="1:1" ht="12.75">
-      <c r="A313" s="34"/>
+      <c r="A313" s="33"/>
     </row>
     <row r="314" spans="1:1" ht="12.75">
-      <c r="A314" s="34"/>
+      <c r="A314" s="33"/>
     </row>
     <row r="315" spans="1:1" ht="12.75">
-      <c r="A315" s="34"/>
+      <c r="A315" s="33"/>
     </row>
     <row r="316" spans="1:1" ht="12.75">
-      <c r="A316" s="34"/>
+      <c r="A316" s="33"/>
     </row>
     <row r="317" spans="1:1" ht="12.75">
-      <c r="A317" s="34"/>
+      <c r="A317" s="33"/>
     </row>
     <row r="318" spans="1:1" ht="12.75">
-      <c r="A318" s="34"/>
+      <c r="A318" s="33"/>
     </row>
     <row r="319" spans="1:1" ht="12.75">
-      <c r="A319" s="34"/>
+      <c r="A319" s="33"/>
     </row>
     <row r="320" spans="1:1" ht="12.75">
-      <c r="A320" s="34"/>
+      <c r="A320" s="33"/>
     </row>
     <row r="321" spans="1:1" ht="12.75">
-      <c r="A321" s="34"/>
+      <c r="A321" s="33"/>
     </row>
     <row r="322" spans="1:1" ht="12.75">
-      <c r="A322" s="34"/>
+      <c r="A322" s="33"/>
     </row>
     <row r="323" spans="1:1" ht="12.75">
-      <c r="A323" s="34"/>
+      <c r="A323" s="33"/>
     </row>
     <row r="324" spans="1:1" ht="12.75">
-      <c r="A324" s="34"/>
+      <c r="A324" s="33"/>
     </row>
     <row r="325" spans="1:1" ht="12.75">
-      <c r="A325" s="34"/>
+      <c r="A325" s="33"/>
     </row>
     <row r="326" spans="1:1" ht="12.75">
-      <c r="A326" s="34"/>
+      <c r="A326" s="33"/>
     </row>
     <row r="327" spans="1:1" ht="12.75">
-      <c r="A327" s="34"/>
+      <c r="A327" s="33"/>
     </row>
     <row r="328" spans="1:1" ht="12.75">
-      <c r="A328" s="34"/>
+      <c r="A328" s="33"/>
     </row>
     <row r="329" spans="1:1" ht="12.75">
-      <c r="A329" s="34"/>
+      <c r="A329" s="33"/>
     </row>
     <row r="330" spans="1:1" ht="12.75">
-      <c r="A330" s="34"/>
+      <c r="A330" s="33"/>
     </row>
     <row r="331" spans="1:1" ht="12.75">
-      <c r="A331" s="34"/>
+      <c r="A331" s="33"/>
     </row>
     <row r="332" spans="1:1" ht="12.75">
-      <c r="A332" s="34"/>
+      <c r="A332" s="33"/>
     </row>
     <row r="333" spans="1:1" ht="12.75">
-      <c r="A333" s="34"/>
+      <c r="A333" s="33"/>
     </row>
     <row r="334" spans="1:1" ht="12.75">
-      <c r="A334" s="34"/>
+      <c r="A334" s="33"/>
     </row>
     <row r="335" spans="1:1" ht="12.75">
-      <c r="A335" s="34"/>
+      <c r="A335" s="33"/>
     </row>
     <row r="336" spans="1:1" ht="12.75">
-      <c r="A336" s="34"/>
+      <c r="A336" s="33"/>
     </row>
     <row r="337" spans="1:1" ht="12.75">
-      <c r="A337" s="34"/>
+      <c r="A337" s="33"/>
     </row>
     <row r="338" spans="1:1" ht="12.75">
-      <c r="A338" s="34"/>
+      <c r="A338" s="33"/>
     </row>
     <row r="339" spans="1:1" ht="12.75">
-      <c r="A339" s="34"/>
+      <c r="A339" s="33"/>
     </row>
     <row r="340" spans="1:1" ht="12.75">
-      <c r="A340" s="34"/>
+      <c r="A340" s="33"/>
     </row>
     <row r="341" spans="1:1" ht="12.75">
-      <c r="A341" s="34"/>
+      <c r="A341" s="33"/>
     </row>
     <row r="342" spans="1:1" ht="12.75">
-      <c r="A342" s="34"/>
+      <c r="A342" s="33"/>
     </row>
     <row r="343" spans="1:1" ht="12.75">
-      <c r="A343" s="34"/>
+      <c r="A343" s="33"/>
     </row>
     <row r="344" spans="1:1" ht="12.75">
-      <c r="A344" s="34"/>
+      <c r="A344" s="33"/>
     </row>
     <row r="345" spans="1:1" ht="12.75">
-      <c r="A345" s="34"/>
+      <c r="A345" s="33"/>
     </row>
     <row r="346" spans="1:1" ht="12.75">
-      <c r="A346" s="34"/>
+      <c r="A346" s="33"/>
     </row>
     <row r="347" spans="1:1" ht="12.75">
-      <c r="A347" s="34"/>
+      <c r="A347" s="33"/>
     </row>
     <row r="348" spans="1:1" ht="12.75">
-      <c r="A348" s="34"/>
+      <c r="A348" s="33"/>
     </row>
     <row r="349" spans="1:1" ht="12.75">
-      <c r="A349" s="34"/>
+      <c r="A349" s="33"/>
     </row>
     <row r="350" spans="1:1" ht="12.75">
-      <c r="A350" s="34"/>
+      <c r="A350" s="33"/>
     </row>
     <row r="351" spans="1:1" ht="12.75">
-      <c r="A351" s="34"/>
+      <c r="A351" s="33"/>
     </row>
     <row r="352" spans="1:1" ht="12.75">
-      <c r="A352" s="34"/>
+      <c r="A352" s="33"/>
     </row>
     <row r="353" spans="1:1" ht="12.75">
-      <c r="A353" s="34"/>
+      <c r="A353" s="33"/>
     </row>
     <row r="354" spans="1:1" ht="12.75">
-      <c r="A354" s="34"/>
+      <c r="A354" s="33"/>
     </row>
     <row r="355" spans="1:1" ht="12.75">
-      <c r="A355" s="34"/>
+      <c r="A355" s="33"/>
     </row>
     <row r="356" spans="1:1" ht="12.75">
-      <c r="A356" s="34"/>
+      <c r="A356" s="33"/>
     </row>
     <row r="357" spans="1:1" ht="12.75">
-      <c r="A357" s="34"/>
+      <c r="A357" s="33"/>
     </row>
     <row r="358" spans="1:1" ht="12.75">
-      <c r="A358" s="34"/>
+      <c r="A358" s="33"/>
     </row>
     <row r="359" spans="1:1" ht="12.75">
-      <c r="A359" s="34"/>
+      <c r="A359" s="33"/>
     </row>
     <row r="360" spans="1:1" ht="12.75">
-      <c r="A360" s="34"/>
+      <c r="A360" s="33"/>
     </row>
     <row r="361" spans="1:1" ht="12.75">
-      <c r="A361" s="34"/>
+      <c r="A361" s="33"/>
     </row>
     <row r="362" spans="1:1" ht="12.75">
-      <c r="A362" s="34"/>
+      <c r="A362" s="33"/>
     </row>
     <row r="363" spans="1:1" ht="12.75">
-      <c r="A363" s="34"/>
+      <c r="A363" s="33"/>
     </row>
     <row r="364" spans="1:1" ht="12.75">
-      <c r="A364" s="34"/>
+      <c r="A364" s="33"/>
     </row>
     <row r="365" spans="1:1" ht="12.75">
-      <c r="A365" s="34"/>
+      <c r="A365" s="33"/>
     </row>
     <row r="366" spans="1:1" ht="12.75">
-      <c r="A366" s="34"/>
+      <c r="A366" s="33"/>
     </row>
     <row r="367" spans="1:1" ht="12.75">
-      <c r="A367" s="34"/>
+      <c r="A367" s="33"/>
     </row>
     <row r="368" spans="1:1" ht="12.75">
-      <c r="A368" s="34"/>
+      <c r="A368" s="33"/>
     </row>
     <row r="369" spans="1:1" ht="12.75">
-      <c r="A369" s="34"/>
+      <c r="A369" s="33"/>
     </row>
     <row r="370" spans="1:1" ht="12.75">
-      <c r="A370" s="34"/>
+      <c r="A370" s="33"/>
     </row>
     <row r="371" spans="1:1" ht="12.75">
-      <c r="A371" s="34"/>
+      <c r="A371" s="33"/>
     </row>
     <row r="372" spans="1:1" ht="12.75">
-      <c r="A372" s="34"/>
+      <c r="A372" s="33"/>
     </row>
     <row r="373" spans="1:1" ht="12.75">
-      <c r="A373" s="34"/>
+      <c r="A373" s="33"/>
     </row>
     <row r="374" spans="1:1" ht="12.75">
-      <c r="A374" s="34"/>
+      <c r="A374" s="33"/>
     </row>
     <row r="375" spans="1:1" ht="12.75">
-      <c r="A375" s="34"/>
+      <c r="A375" s="33"/>
     </row>
     <row r="376" spans="1:1" ht="12.75">
-      <c r="A376" s="34"/>
+      <c r="A376" s="33"/>
     </row>
     <row r="377" spans="1:1" ht="12.75">
-      <c r="A377" s="34"/>
+      <c r="A377" s="33"/>
     </row>
     <row r="378" spans="1:1" ht="12.75">
-      <c r="A378" s="34"/>
+      <c r="A378" s="33"/>
     </row>
     <row r="379" spans="1:1" ht="12.75">
-      <c r="A379" s="34"/>
+      <c r="A379" s="33"/>
     </row>
     <row r="380" spans="1:1" ht="12.75">
-      <c r="A380" s="34"/>
+      <c r="A380" s="33"/>
     </row>
     <row r="381" spans="1:1" ht="12.75">
-      <c r="A381" s="34"/>
+      <c r="A381" s="33"/>
     </row>
     <row r="382" spans="1:1" ht="12.75">
-      <c r="A382" s="34"/>
+      <c r="A382" s="33"/>
     </row>
     <row r="383" spans="1:1" ht="12.75">
-      <c r="A383" s="34"/>
+      <c r="A383" s="33"/>
     </row>
     <row r="384" spans="1:1" ht="12.75">
-      <c r="A384" s="34"/>
+      <c r="A384" s="33"/>
     </row>
     <row r="385" spans="1:1" ht="12.75">
-      <c r="A385" s="34"/>
+      <c r="A385" s="33"/>
     </row>
     <row r="386" spans="1:1" ht="12.75">
-      <c r="A386" s="34"/>
+      <c r="A386" s="33"/>
     </row>
     <row r="387" spans="1:1" ht="12.75">
-      <c r="A387" s="34"/>
+      <c r="A387" s="33"/>
     </row>
     <row r="388" spans="1:1" ht="12.75">
-      <c r="A388" s="34"/>
+      <c r="A388" s="33"/>
     </row>
     <row r="389" spans="1:1" ht="12.75">
-      <c r="A389" s="34"/>
+      <c r="A389" s="33"/>
     </row>
     <row r="390" spans="1:1" ht="12.75">
-      <c r="A390" s="34"/>
+      <c r="A390" s="33"/>
     </row>
     <row r="391" spans="1:1" ht="12.75">
-      <c r="A391" s="34"/>
+      <c r="A391" s="33"/>
     </row>
     <row r="392" spans="1:1" ht="12.75">
-      <c r="A392" s="34"/>
+      <c r="A392" s="33"/>
     </row>
     <row r="393" spans="1:1" ht="12.75">
-      <c r="A393" s="34"/>
+      <c r="A393" s="33"/>
     </row>
     <row r="394" spans="1:1" ht="12.75">
-      <c r="A394" s="34"/>
+      <c r="A394" s="33"/>
     </row>
     <row r="395" spans="1:1" ht="12.75">
-      <c r="A395" s="34"/>
+      <c r="A395" s="33"/>
     </row>
     <row r="396" spans="1:1" ht="12.75">
-      <c r="A396" s="34"/>
+      <c r="A396" s="33"/>
     </row>
     <row r="397" spans="1:1" ht="12.75">
-      <c r="A397" s="34"/>
+      <c r="A397" s="33"/>
     </row>
     <row r="398" spans="1:1" ht="12.75">
-      <c r="A398" s="34"/>
+      <c r="A398" s="33"/>
     </row>
     <row r="399" spans="1:1" ht="12.75">
-      <c r="A399" s="34"/>
+      <c r="A399" s="33"/>
     </row>
     <row r="400" spans="1:1" ht="12.75">
-      <c r="A400" s="34"/>
+      <c r="A400" s="33"/>
     </row>
     <row r="401" spans="1:1" ht="12.75">
-      <c r="A401" s="34"/>
+      <c r="A401" s="33"/>
     </row>
     <row r="402" spans="1:1" ht="12.75">
-      <c r="A402" s="34"/>
+      <c r="A402" s="33"/>
     </row>
     <row r="403" spans="1:1" ht="12.75">
-      <c r="A403" s="34"/>
+      <c r="A403" s="33"/>
     </row>
     <row r="404" spans="1:1" ht="12.75">
-      <c r="A404" s="34"/>
+      <c r="A404" s="33"/>
     </row>
     <row r="405" spans="1:1" ht="12.75">
-      <c r="A405" s="34"/>
+      <c r="A405" s="33"/>
     </row>
     <row r="406" spans="1:1" ht="12.75">
-      <c r="A406" s="34"/>
+      <c r="A406" s="33"/>
     </row>
     <row r="407" spans="1:1" ht="12.75">
-      <c r="A407" s="34"/>
+      <c r="A407" s="33"/>
     </row>
     <row r="408" spans="1:1" ht="12.75">
-      <c r="A408" s="34"/>
+      <c r="A408" s="33"/>
     </row>
     <row r="409" spans="1:1" ht="12.75">
-      <c r="A409" s="34"/>
+      <c r="A409" s="33"/>
     </row>
     <row r="410" spans="1:1" ht="12.75">
-      <c r="A410" s="34"/>
+      <c r="A410" s="33"/>
     </row>
     <row r="411" spans="1:1" ht="12.75">
-      <c r="A411" s="34"/>
+      <c r="A411" s="33"/>
     </row>
     <row r="412" spans="1:1" ht="12.75">
-      <c r="A412" s="34"/>
+      <c r="A412" s="33"/>
     </row>
     <row r="413" spans="1:1" ht="12.75">
-      <c r="A413" s="34"/>
+      <c r="A413" s="33"/>
     </row>
     <row r="414" spans="1:1" ht="12.75">
-      <c r="A414" s="34"/>
+      <c r="A414" s="33"/>
     </row>
     <row r="415" spans="1:1" ht="12.75">
-      <c r="A415" s="34"/>
+      <c r="A415" s="33"/>
     </row>
     <row r="416" spans="1:1" ht="12.75">
-      <c r="A416" s="34"/>
+      <c r="A416" s="33"/>
     </row>
     <row r="417" spans="1:1" ht="12.75">
-      <c r="A417" s="34"/>
+      <c r="A417" s="33"/>
     </row>
     <row r="418" spans="1:1" ht="12.75">
-      <c r="A418" s="34"/>
+      <c r="A418" s="33"/>
     </row>
     <row r="419" spans="1:1" ht="12.75">
-      <c r="A419" s="34"/>
+      <c r="A419" s="33"/>
     </row>
     <row r="420" spans="1:1" ht="12.75">
-      <c r="A420" s="34"/>
+      <c r="A420" s="33"/>
     </row>
     <row r="421" spans="1:1" ht="12.75">
-      <c r="A421" s="34"/>
+      <c r="A421" s="33"/>
     </row>
     <row r="422" spans="1:1" ht="12.75">
-      <c r="A422" s="34"/>
+      <c r="A422" s="33"/>
     </row>
     <row r="423" spans="1:1" ht="12.75">
-      <c r="A423" s="34"/>
+      <c r="A423" s="33"/>
     </row>
     <row r="424" spans="1:1" ht="12.75">
-      <c r="A424" s="34"/>
+      <c r="A424" s="33"/>
     </row>
     <row r="425" spans="1:1" ht="12.75">
-      <c r="A425" s="34"/>
+      <c r="A425" s="33"/>
     </row>
     <row r="426" spans="1:1" ht="12.75">
-      <c r="A426" s="34"/>
+      <c r="A426" s="33"/>
     </row>
     <row r="427" spans="1:1" ht="12.75">
-      <c r="A427" s="34"/>
+      <c r="A427" s="33"/>
     </row>
     <row r="428" spans="1:1" ht="12.75">
-      <c r="A428" s="34"/>
+      <c r="A428" s="33"/>
     </row>
     <row r="429" spans="1:1" ht="12.75">
-      <c r="A429" s="34"/>
+      <c r="A429" s="33"/>
     </row>
     <row r="430" spans="1:1" ht="12.75">
-      <c r="A430" s="34"/>
+      <c r="A430" s="33"/>
     </row>
     <row r="431" spans="1:1" ht="12.75">
-      <c r="A431" s="34"/>
+      <c r="A431" s="33"/>
     </row>
     <row r="432" spans="1:1" ht="12.75">
-      <c r="A432" s="34"/>
+      <c r="A432" s="33"/>
     </row>
     <row r="433" spans="1:1" ht="12.75">
-      <c r="A433" s="34"/>
+      <c r="A433" s="33"/>
     </row>
     <row r="434" spans="1:1" ht="12.75">
-      <c r="A434" s="34"/>
+      <c r="A434" s="33"/>
     </row>
     <row r="435" spans="1:1" ht="12.75">
-      <c r="A435" s="34"/>
+      <c r="A435" s="33"/>
     </row>
     <row r="436" spans="1:1" ht="12.75">
-      <c r="A436" s="34"/>
+      <c r="A436" s="33"/>
     </row>
     <row r="437" spans="1:1" ht="12.75">
-      <c r="A437" s="34"/>
+      <c r="A437" s="33"/>
     </row>
     <row r="438" spans="1:1" ht="12.75">
-      <c r="A438" s="34"/>
+      <c r="A438" s="33"/>
     </row>
     <row r="439" spans="1:1" ht="12.75">
-      <c r="A439" s="34"/>
+      <c r="A439" s="33"/>
     </row>
     <row r="440" spans="1:1" ht="12.75">
-      <c r="A440" s="34"/>
+      <c r="A440" s="33"/>
     </row>
     <row r="441" spans="1:1" ht="12.75">
-      <c r="A441" s="34"/>
+      <c r="A441" s="33"/>
     </row>
     <row r="442" spans="1:1" ht="12.75">
-      <c r="A442" s="34"/>
+      <c r="A442" s="33"/>
     </row>
     <row r="443" spans="1:1" ht="12.75">
-      <c r="A443" s="34"/>
+      <c r="A443" s="33"/>
     </row>
     <row r="444" spans="1:1" ht="12.75">
-      <c r="A444" s="34"/>
+      <c r="A444" s="33"/>
     </row>
     <row r="445" spans="1:1" ht="12.75">
-      <c r="A445" s="34"/>
+      <c r="A445" s="33"/>
     </row>
     <row r="446" spans="1:1" ht="12.75">
-      <c r="A446" s="34"/>
+      <c r="A446" s="33"/>
     </row>
     <row r="447" spans="1:1" ht="12.75">
-      <c r="A447" s="34"/>
+      <c r="A447" s="33"/>
     </row>
     <row r="448" spans="1:1" ht="12.75">
-      <c r="A448" s="34"/>
+      <c r="A448" s="33"/>
     </row>
     <row r="449" spans="1:1" ht="12.75">
-      <c r="A449" s="34"/>
+      <c r="A449" s="33"/>
     </row>
     <row r="450" spans="1:1" ht="12.75">
-      <c r="A450" s="34"/>
+      <c r="A450" s="33"/>
     </row>
     <row r="451" spans="1:1" ht="12.75">
-      <c r="A451" s="34"/>
+      <c r="A451" s="33"/>
     </row>
     <row r="452" spans="1:1" ht="12.75">
-      <c r="A452" s="34"/>
+      <c r="A452" s="33"/>
     </row>
     <row r="453" spans="1:1" ht="12.75">
-      <c r="A453" s="34"/>
+      <c r="A453" s="33"/>
     </row>
     <row r="454" spans="1:1" ht="12.75">
-      <c r="A454" s="34"/>
+      <c r="A454" s="33"/>
     </row>
     <row r="455" spans="1:1" ht="12.75">
-      <c r="A455" s="34"/>
+      <c r="A455" s="33"/>
     </row>
     <row r="456" spans="1:1" ht="12.75">
-      <c r="A456" s="34"/>
+      <c r="A456" s="33"/>
     </row>
     <row r="457" spans="1:1" ht="12.75">
-      <c r="A457" s="34"/>
+      <c r="A457" s="33"/>
     </row>
     <row r="458" spans="1:1" ht="12.75">
-      <c r="A458" s="34"/>
+      <c r="A458" s="33"/>
     </row>
     <row r="459" spans="1:1" ht="12.75">
-      <c r="A459" s="34"/>
+      <c r="A459" s="33"/>
     </row>
     <row r="460" spans="1:1" ht="12.75">
-      <c r="A460" s="34"/>
+      <c r="A460" s="33"/>
     </row>
     <row r="461" spans="1:1" ht="12.75">
-      <c r="A461" s="34"/>
+      <c r="A461" s="33"/>
     </row>
     <row r="462" spans="1:1" ht="12.75">
-      <c r="A462" s="34"/>
+      <c r="A462" s="33"/>
     </row>
     <row r="463" spans="1:1" ht="12.75">
-      <c r="A463" s="34"/>
+      <c r="A463" s="33"/>
     </row>
     <row r="464" spans="1:1" ht="12.75">
-      <c r="A464" s="34"/>
+      <c r="A464" s="33"/>
     </row>
     <row r="465" spans="1:1" ht="12.75">
-      <c r="A465" s="34"/>
+      <c r="A465" s="33"/>
     </row>
     <row r="466" spans="1:1" ht="12.75">
-      <c r="A466" s="34"/>
+      <c r="A466" s="33"/>
     </row>
     <row r="467" spans="1:1" ht="12.75">
-      <c r="A467" s="34"/>
+      <c r="A467" s="33"/>
     </row>
     <row r="468" spans="1:1" ht="12.75">
-      <c r="A468" s="34"/>
+      <c r="A468" s="33"/>
     </row>
     <row r="469" spans="1:1" ht="12.75">
-      <c r="A469" s="34"/>
+      <c r="A469" s="33"/>
     </row>
     <row r="470" spans="1:1" ht="12.75">
-      <c r="A470" s="34"/>
+      <c r="A470" s="33"/>
     </row>
     <row r="471" spans="1:1" ht="12.75">
-      <c r="A471" s="34"/>
+      <c r="A471" s="33"/>
     </row>
     <row r="472" spans="1:1" ht="12.75">
-      <c r="A472" s="34"/>
+      <c r="A472" s="33"/>
     </row>
     <row r="473" spans="1:1" ht="12.75">
-      <c r="A473" s="34"/>
+      <c r="A473" s="33"/>
     </row>
     <row r="474" spans="1:1" ht="12.75">
-      <c r="A474" s="34"/>
+      <c r="A474" s="33"/>
     </row>
     <row r="475" spans="1:1" ht="12.75">
-      <c r="A475" s="34"/>
+      <c r="A475" s="33"/>
     </row>
     <row r="476" spans="1:1" ht="12.75">
-      <c r="A476" s="34"/>
+      <c r="A476" s="33"/>
     </row>
     <row r="477" spans="1:1" ht="12.75">
-      <c r="A477" s="34"/>
+      <c r="A477" s="33"/>
     </row>
     <row r="478" spans="1:1" ht="12.75">
-      <c r="A478" s="34"/>
+      <c r="A478" s="33"/>
     </row>
     <row r="479" spans="1:1" ht="12.75">
-      <c r="A479" s="34"/>
+      <c r="A479" s="33"/>
     </row>
     <row r="480" spans="1:1" ht="12.75">
-      <c r="A480" s="34"/>
+      <c r="A480" s="33"/>
     </row>
     <row r="481" spans="1:1" ht="12.75">
-      <c r="A481" s="34"/>
+      <c r="A481" s="33"/>
     </row>
     <row r="482" spans="1:1" ht="12.75">
-      <c r="A482" s="34"/>
+      <c r="A482" s="33"/>
     </row>
     <row r="483" spans="1:1" ht="12.75">
-      <c r="A483" s="34"/>
+      <c r="A483" s="33"/>
     </row>
     <row r="484" spans="1:1" ht="12.75">
-      <c r="A484" s="34"/>
+      <c r="A484" s="33"/>
     </row>
     <row r="485" spans="1:1" ht="12.75">
-      <c r="A485" s="34"/>
+      <c r="A485" s="33"/>
     </row>
     <row r="486" spans="1:1" ht="12.75">
-      <c r="A486" s="34"/>
+      <c r="A486" s="33"/>
     </row>
     <row r="487" spans="1:1" ht="12.75">
-      <c r="A487" s="34"/>
+      <c r="A487" s="33"/>
     </row>
     <row r="488" spans="1:1" ht="12.75">
-      <c r="A488" s="34"/>
+      <c r="A488" s="33"/>
     </row>
     <row r="489" spans="1:1" ht="12.75">
-      <c r="A489" s="34"/>
+      <c r="A489" s="33"/>
     </row>
     <row r="490" spans="1:1" ht="12.75">
-      <c r="A490" s="34"/>
+      <c r="A490" s="33"/>
     </row>
     <row r="491" spans="1:1" ht="12.75">
-      <c r="A491" s="34"/>
+      <c r="A491" s="33"/>
     </row>
     <row r="492" spans="1:1" ht="12.75">
-      <c r="A492" s="34"/>
+      <c r="A492" s="33"/>
     </row>
     <row r="493" spans="1:1" ht="12.75">
-      <c r="A493" s="34"/>
+      <c r="A493" s="33"/>
     </row>
     <row r="494" spans="1:1" ht="12.75">
-      <c r="A494" s="34"/>
+      <c r="A494" s="33"/>
     </row>
     <row r="495" spans="1:1" ht="12.75">
-      <c r="A495" s="34"/>
+      <c r="A495" s="33"/>
     </row>
     <row r="496" spans="1:1" ht="12.75">
-      <c r="A496" s="34"/>
+      <c r="A496" s="33"/>
     </row>
     <row r="497" spans="1:1" ht="12.75">
-      <c r="A497" s="34"/>
+      <c r="A497" s="33"/>
     </row>
     <row r="498" spans="1:1" ht="12.75">
-      <c r="A498" s="34"/>
+      <c r="A498" s="33"/>
     </row>
     <row r="499" spans="1:1" ht="12.75">
-      <c r="A499" s="34"/>
+      <c r="A499" s="33"/>
     </row>
     <row r="500" spans="1:1" ht="12.75">
-      <c r="A500" s="34"/>
+      <c r="A500" s="33"/>
     </row>
     <row r="501" spans="1:1" ht="12.75">
-      <c r="A501" s="34"/>
+      <c r="A501" s="33"/>
     </row>
     <row r="502" spans="1:1" ht="12.75">
-      <c r="A502" s="34"/>
+      <c r="A502" s="33"/>
     </row>
     <row r="503" spans="1:1" ht="12.75">
-      <c r="A503" s="34"/>
+      <c r="A503" s="33"/>
     </row>
     <row r="504" spans="1:1" ht="12.75">
-      <c r="A504" s="34"/>
+      <c r="A504" s="33"/>
     </row>
     <row r="505" spans="1:1" ht="12.75">
-      <c r="A505" s="34"/>
+      <c r="A505" s="33"/>
     </row>
     <row r="506" spans="1:1" ht="12.75">
-      <c r="A506" s="34"/>
+      <c r="A506" s="33"/>
     </row>
     <row r="507" spans="1:1" ht="12.75">
-      <c r="A507" s="34"/>
+      <c r="A507" s="33"/>
     </row>
     <row r="508" spans="1:1" ht="12.75">
-      <c r="A508" s="34"/>
+      <c r="A508" s="33"/>
     </row>
     <row r="509" spans="1:1" ht="12.75">
-      <c r="A509" s="34"/>
+      <c r="A509" s="33"/>
     </row>
     <row r="510" spans="1:1" ht="12.75">
-      <c r="A510" s="34"/>
+      <c r="A510" s="33"/>
     </row>
     <row r="511" spans="1:1" ht="12.75">
-      <c r="A511" s="34"/>
+      <c r="A511" s="33"/>
     </row>
     <row r="512" spans="1:1" ht="12.75">
-      <c r="A512" s="34"/>
+      <c r="A512" s="33"/>
     </row>
     <row r="513" spans="1:1" ht="12.75">
-      <c r="A513" s="34"/>
+      <c r="A513" s="33"/>
     </row>
     <row r="514" spans="1:1" ht="12.75">
-      <c r="A514" s="34"/>
+      <c r="A514" s="33"/>
     </row>
     <row r="515" spans="1:1" ht="12.75">
-      <c r="A515" s="34"/>
+      <c r="A515" s="33"/>
     </row>
     <row r="516" spans="1:1" ht="12.75">
-      <c r="A516" s="34"/>
+      <c r="A516" s="33"/>
     </row>
     <row r="517" spans="1:1" ht="12.75">
-      <c r="A517" s="34"/>
+      <c r="A517" s="33"/>
     </row>
     <row r="518" spans="1:1" ht="12.75">
-      <c r="A518" s="34"/>
+      <c r="A518" s="33"/>
     </row>
     <row r="519" spans="1:1" ht="12.75">
-      <c r="A519" s="34"/>
+      <c r="A519" s="33"/>
     </row>
     <row r="520" spans="1:1" ht="12.75">
-      <c r="A520" s="34"/>
+      <c r="A520" s="33"/>
     </row>
     <row r="521" spans="1:1" ht="12.75">
-      <c r="A521" s="34"/>
+      <c r="A521" s="33"/>
     </row>
     <row r="522" spans="1:1" ht="12.75">
-      <c r="A522" s="34"/>
+      <c r="A522" s="33"/>
     </row>
     <row r="523" spans="1:1" ht="12.75">
-      <c r="A523" s="34"/>
+      <c r="A523" s="33"/>
     </row>
     <row r="524" spans="1:1" ht="12.75">
-      <c r="A524" s="34"/>
+      <c r="A524" s="33"/>
     </row>
     <row r="525" spans="1:1" ht="12.75">
-      <c r="A525" s="34"/>
+      <c r="A525" s="33"/>
     </row>
     <row r="526" spans="1:1" ht="12.75">
-      <c r="A526" s="34"/>
+      <c r="A526" s="33"/>
     </row>
     <row r="527" spans="1:1" ht="12.75">
-      <c r="A527" s="34"/>
+      <c r="A527" s="33"/>
     </row>
     <row r="528" spans="1:1" ht="12.75">
-      <c r="A528" s="34"/>
+      <c r="A528" s="33"/>
     </row>
     <row r="529" spans="1:1" ht="12.75">
-      <c r="A529" s="34"/>
+      <c r="A529" s="33"/>
     </row>
     <row r="530" spans="1:1" ht="12.75">
-      <c r="A530" s="34"/>
+      <c r="A530" s="33"/>
     </row>
     <row r="531" spans="1:1" ht="12.75">
-      <c r="A531" s="34"/>
+      <c r="A531" s="33"/>
     </row>
     <row r="532" spans="1:1" ht="12.75">
-      <c r="A532" s="34"/>
+      <c r="A532" s="33"/>
     </row>
     <row r="533" spans="1:1" ht="12.75">
-      <c r="A533" s="34"/>
+      <c r="A533" s="33"/>
     </row>
     <row r="534" spans="1:1" ht="12.75">
-      <c r="A534" s="34"/>
+      <c r="A534" s="33"/>
     </row>
     <row r="535" spans="1:1" ht="12.75">
-      <c r="A535" s="34"/>
+      <c r="A535" s="33"/>
     </row>
     <row r="536" spans="1:1" ht="12.75">
-      <c r="A536" s="34"/>
+      <c r="A536" s="33"/>
     </row>
     <row r="537" spans="1:1" ht="12.75">
-      <c r="A537" s="34"/>
+      <c r="A537" s="33"/>
     </row>
     <row r="538" spans="1:1" ht="12.75">
-      <c r="A538" s="34"/>
+      <c r="A538" s="33"/>
     </row>
     <row r="539" spans="1:1" ht="12.75">
-      <c r="A539" s="34"/>
+      <c r="A539" s="33"/>
     </row>
     <row r="540" spans="1:1" ht="12.75">
-      <c r="A540" s="34"/>
+      <c r="A540" s="33"/>
     </row>
     <row r="541" spans="1:1" ht="12.75">
-      <c r="A541" s="34"/>
+      <c r="A541" s="33"/>
     </row>
     <row r="542" spans="1:1" ht="12.75">
-      <c r="A542" s="34"/>
+      <c r="A542" s="33"/>
     </row>
     <row r="543" spans="1:1" ht="12.75">
-      <c r="A543" s="34"/>
+      <c r="A543" s="33"/>
     </row>
     <row r="544" spans="1:1" ht="12.75">
-      <c r="A544" s="34"/>
+      <c r="A544" s="33"/>
     </row>
     <row r="545" spans="1:1" ht="12.75">
-      <c r="A545" s="34"/>
+      <c r="A545" s="33"/>
     </row>
     <row r="546" spans="1:1" ht="12.75">
-      <c r="A546" s="34"/>
+      <c r="A546" s="33"/>
     </row>
     <row r="547" spans="1:1" ht="12.75">
-      <c r="A547" s="34"/>
+      <c r="A547" s="33"/>
     </row>
     <row r="548" spans="1:1" ht="12.75">
-      <c r="A548" s="34"/>
+      <c r="A548" s="33"/>
     </row>
     <row r="549" spans="1:1" ht="12.75">
-      <c r="A549" s="34"/>
+      <c r="A549" s="33"/>
     </row>
     <row r="550" spans="1:1" ht="12.75">
-      <c r="A550" s="34"/>
+      <c r="A550" s="33"/>
     </row>
     <row r="551" spans="1:1" ht="12.75">
-      <c r="A551" s="34"/>
+      <c r="A551" s="33"/>
     </row>
     <row r="552" spans="1:1" ht="12.75">
-      <c r="A552" s="34"/>
+      <c r="A552" s="33"/>
     </row>
     <row r="553" spans="1:1" ht="12.75">
-      <c r="A553" s="34"/>
+      <c r="A553" s="33"/>
     </row>
     <row r="554" spans="1:1" ht="12.75">
-      <c r="A554" s="34"/>
+      <c r="A554" s="33"/>
     </row>
     <row r="555" spans="1:1" ht="12.75">
-      <c r="A555" s="34"/>
+      <c r="A555" s="33"/>
     </row>
     <row r="556" spans="1:1" ht="12.75">
-      <c r="A556" s="34"/>
+      <c r="A556" s="33"/>
     </row>
     <row r="557" spans="1:1" ht="12.75">
-      <c r="A557" s="34"/>
+      <c r="A557" s="33"/>
     </row>
     <row r="558" spans="1:1" ht="12.75">
-      <c r="A558" s="34"/>
+      <c r="A558" s="33"/>
     </row>
     <row r="559" spans="1:1" ht="12.75">
-      <c r="A559" s="34"/>
+      <c r="A559" s="33"/>
     </row>
     <row r="560" spans="1:1" ht="12.75">
-      <c r="A560" s="34"/>
+      <c r="A560" s="33"/>
     </row>
     <row r="561" spans="1:1" ht="12.75">
-      <c r="A561" s="34"/>
+      <c r="A561" s="33"/>
     </row>
     <row r="562" spans="1:1" ht="12.75">
-      <c r="A562" s="34"/>
+      <c r="A562" s="33"/>
     </row>
     <row r="563" spans="1:1" ht="12.75">
-      <c r="A563" s="34"/>
+      <c r="A563" s="33"/>
     </row>
     <row r="564" spans="1:1" ht="12.75">
-      <c r="A564" s="34"/>
+      <c r="A564" s="33"/>
     </row>
     <row r="565" spans="1:1" ht="12.75">
-      <c r="A565" s="34"/>
+      <c r="A565" s="33"/>
     </row>
     <row r="566" spans="1:1" ht="12.75">
-      <c r="A566" s="34"/>
+      <c r="A566" s="33"/>
     </row>
     <row r="567" spans="1:1" ht="12.75">
-      <c r="A567" s="34"/>
+      <c r="A567" s="33"/>
     </row>
     <row r="568" spans="1:1" ht="12.75">
-      <c r="A568" s="34"/>
+      <c r="A568" s="33"/>
     </row>
     <row r="569" spans="1:1" ht="12.75">
-      <c r="A569" s="34"/>
+      <c r="A569" s="33"/>
     </row>
     <row r="570" spans="1:1" ht="12.75">
-      <c r="A570" s="34"/>
+      <c r="A570" s="33"/>
     </row>
     <row r="571" spans="1:1" ht="12.75">
-      <c r="A571" s="34"/>
+      <c r="A571" s="33"/>
     </row>
     <row r="572" spans="1:1" ht="12.75">
-      <c r="A572" s="34"/>
+      <c r="A572" s="33"/>
     </row>
     <row r="573" spans="1:1" ht="12.75">
-      <c r="A573" s="34"/>
+      <c r="A573" s="33"/>
     </row>
     <row r="574" spans="1:1" ht="12.75">
-      <c r="A574" s="34"/>
+      <c r="A574" s="33"/>
     </row>
     <row r="575" spans="1:1" ht="12.75">
-      <c r="A575" s="34"/>
+      <c r="A575" s="33"/>
     </row>
     <row r="576" spans="1:1" ht="12.75">
-      <c r="A576" s="34"/>
+      <c r="A576" s="33"/>
     </row>
     <row r="577" spans="1:1" ht="12.75">
-      <c r="A577" s="34"/>
+      <c r="A577" s="33"/>
     </row>
     <row r="578" spans="1:1" ht="12.75">
-      <c r="A578" s="34"/>
+      <c r="A578" s="33"/>
     </row>
     <row r="579" spans="1:1" ht="12.75">
-      <c r="A579" s="34"/>
+      <c r="A579" s="33"/>
     </row>
     <row r="580" spans="1:1" ht="12.75">
-      <c r="A580" s="34"/>
+      <c r="A580" s="33"/>
     </row>
     <row r="581" spans="1:1" ht="12.75">
-      <c r="A581" s="34"/>
+      <c r="A581" s="33"/>
     </row>
     <row r="582" spans="1:1" ht="12.75">
-      <c r="A582" s="34"/>
+      <c r="A582" s="33"/>
     </row>
     <row r="583" spans="1:1" ht="12.75">
-      <c r="A583" s="34"/>
+      <c r="A583" s="33"/>
     </row>
     <row r="584" spans="1:1" ht="12.75">
-      <c r="A584" s="34"/>
+      <c r="A584" s="33"/>
     </row>
     <row r="585" spans="1:1" ht="12.75">
-      <c r="A585" s="34"/>
+      <c r="A585" s="33"/>
     </row>
     <row r="586" spans="1:1" ht="12.75">
-      <c r="A586" s="34"/>
+      <c r="A586" s="33"/>
     </row>
     <row r="587" spans="1:1" ht="12.75">
-      <c r="A587" s="34"/>
+      <c r="A587" s="33"/>
     </row>
     <row r="588" spans="1:1" ht="12.75">
-      <c r="A588" s="34"/>
+      <c r="A588" s="33"/>
     </row>
     <row r="589" spans="1:1" ht="12.75">
-      <c r="A589" s="34"/>
+      <c r="A589" s="33"/>
     </row>
     <row r="590" spans="1:1" ht="12.75">
-      <c r="A590" s="34"/>
+      <c r="A590" s="33"/>
     </row>
     <row r="591" spans="1:1" ht="12.75">
-      <c r="A591" s="34"/>
+      <c r="A591" s="33"/>
     </row>
     <row r="592" spans="1:1" ht="12.75">
-      <c r="A592" s="34"/>
+      <c r="A592" s="33"/>
     </row>
     <row r="593" spans="1:1" ht="12.75">
-      <c r="A593" s="34"/>
+      <c r="A593" s="33"/>
     </row>
     <row r="594" spans="1:1" ht="12.75">
-      <c r="A594" s="34"/>
+      <c r="A594" s="33"/>
     </row>
     <row r="595" spans="1:1" ht="12.75">
-      <c r="A595" s="34"/>
+      <c r="A595" s="33"/>
     </row>
     <row r="596" spans="1:1" ht="12.75">
-      <c r="A596" s="34"/>
+      <c r="A596" s="33"/>
     </row>
     <row r="597" spans="1:1" ht="12.75">
-      <c r="A597" s="34"/>
+      <c r="A597" s="33"/>
     </row>
     <row r="598" spans="1:1" ht="12.75">
-      <c r="A598" s="34"/>
+      <c r="A598" s="33"/>
     </row>
     <row r="599" spans="1:1" ht="12.75">
-      <c r="A599" s="34"/>
+      <c r="A599" s="33"/>
     </row>
     <row r="600" spans="1:1" ht="12.75">
-      <c r="A600" s="34"/>
+      <c r="A600" s="33"/>
     </row>
     <row r="601" spans="1:1" ht="12.75">
-      <c r="A601" s="34"/>
+      <c r="A601" s="33"/>
     </row>
     <row r="602" spans="1:1" ht="12.75">
-      <c r="A602" s="34"/>
+      <c r="A602" s="33"/>
     </row>
     <row r="603" spans="1:1" ht="12.75">
-      <c r="A603" s="34"/>
+      <c r="A603" s="33"/>
     </row>
     <row r="604" spans="1:1" ht="12.75">
-      <c r="A604" s="34"/>
+      <c r="A604" s="33"/>
     </row>
     <row r="605" spans="1:1" ht="12.75">
-      <c r="A605" s="34"/>
+      <c r="A605" s="33"/>
     </row>
     <row r="606" spans="1:1" ht="12.75">
-      <c r="A606" s="34"/>
+      <c r="A606" s="33"/>
     </row>
     <row r="607" spans="1:1" ht="12.75">
-      <c r="A607" s="34"/>
+      <c r="A607" s="33"/>
     </row>
     <row r="608" spans="1:1" ht="12.75">
-      <c r="A608" s="34"/>
+      <c r="A608" s="33"/>
     </row>
     <row r="609" spans="1:1" ht="12.75">
-      <c r="A609" s="34"/>
+      <c r="A609" s="33"/>
     </row>
     <row r="610" spans="1:1" ht="12.75">
-      <c r="A610" s="34"/>
+      <c r="A610" s="33"/>
     </row>
     <row r="611" spans="1:1" ht="12.75">
-      <c r="A611" s="34"/>
+      <c r="A611" s="33"/>
     </row>
     <row r="612" spans="1:1" ht="12.75">
-      <c r="A612" s="34"/>
+      <c r="A612" s="33"/>
     </row>
     <row r="613" spans="1:1" ht="12.75">
-      <c r="A613" s="34"/>
+      <c r="A613" s="33"/>
     </row>
     <row r="614" spans="1:1" ht="12.75">
-      <c r="A614" s="34"/>
+      <c r="A614" s="33"/>
     </row>
     <row r="615" spans="1:1" ht="12.75">
-      <c r="A615" s="34"/>
+      <c r="A615" s="33"/>
     </row>
     <row r="616" spans="1:1" ht="12.75">
-      <c r="A616" s="34"/>
+      <c r="A616" s="33"/>
     </row>
     <row r="617" spans="1:1" ht="12.75">
-      <c r="A617" s="34"/>
+      <c r="A617" s="33"/>
     </row>
     <row r="618" spans="1:1" ht="12.75">
-      <c r="A618" s="34"/>
+      <c r="A618" s="33"/>
     </row>
     <row r="619" spans="1:1" ht="12.75">
-      <c r="A619" s="34"/>
+      <c r="A619" s="33"/>
     </row>
     <row r="620" spans="1:1" ht="12.75">
-      <c r="A620" s="34"/>
+      <c r="A620" s="33"/>
     </row>
     <row r="621" spans="1:1" ht="12.75">
-      <c r="A621" s="34"/>
+      <c r="A621" s="33"/>
     </row>
     <row r="622" spans="1:1" ht="12.75">
-      <c r="A622" s="34"/>
+      <c r="A622" s="33"/>
     </row>
     <row r="623" spans="1:1" ht="12.75">
-      <c r="A623" s="34"/>
+      <c r="A623" s="33"/>
     </row>
     <row r="624" spans="1:1" ht="12.75">
-      <c r="A624" s="34"/>
+      <c r="A624" s="33"/>
     </row>
     <row r="625" spans="1:1" ht="12.75">
-      <c r="A625" s="34"/>
+      <c r="A625" s="33"/>
     </row>
     <row r="626" spans="1:1" ht="12.75">
-      <c r="A626" s="34"/>
+      <c r="A626" s="33"/>
     </row>
     <row r="627" spans="1:1" ht="12.75">
-      <c r="A627" s="34"/>
+      <c r="A627" s="33"/>
     </row>
     <row r="628" spans="1:1" ht="12.75">
-      <c r="A628" s="34"/>
+      <c r="A628" s="33"/>
     </row>
     <row r="629" spans="1:1" ht="12.75">
-      <c r="A629" s="34"/>
+      <c r="A629" s="33"/>
     </row>
     <row r="630" spans="1:1" ht="12.75">
-      <c r="A630" s="34"/>
+      <c r="A630" s="33"/>
     </row>
     <row r="631" spans="1:1" ht="12.75">
-      <c r="A631" s="34"/>
+      <c r="A631" s="33"/>
     </row>
     <row r="632" spans="1:1" ht="12.75">
-      <c r="A632" s="34"/>
+      <c r="A632" s="33"/>
     </row>
     <row r="633" spans="1:1" ht="12.75">
-      <c r="A633" s="34"/>
+      <c r="A633" s="33"/>
     </row>
     <row r="634" spans="1:1" ht="12.75">
-      <c r="A634" s="34"/>
+      <c r="A634" s="33"/>
     </row>
     <row r="635" spans="1:1" ht="12.75">
-      <c r="A635" s="34"/>
+      <c r="A635" s="33"/>
     </row>
     <row r="636" spans="1:1" ht="12.75">
-      <c r="A636" s="34"/>
+      <c r="A636" s="33"/>
     </row>
     <row r="637" spans="1:1" ht="12.75">
-      <c r="A637" s="34"/>
+      <c r="A637" s="33"/>
     </row>
     <row r="638" spans="1:1" ht="12.75">
-      <c r="A638" s="34"/>
+      <c r="A638" s="33"/>
     </row>
     <row r="639" spans="1:1" ht="12.75">
-      <c r="A639" s="34"/>
+      <c r="A639" s="33"/>
     </row>
     <row r="640" spans="1:1" ht="12.75">
-      <c r="A640" s="34"/>
+      <c r="A640" s="33"/>
     </row>
     <row r="641" spans="1:1" ht="12.75">
-      <c r="A641" s="34"/>
+      <c r="A641" s="33"/>
     </row>
     <row r="642" spans="1:1" ht="12.75">
-      <c r="A642" s="34"/>
+      <c r="A642" s="33"/>
     </row>
     <row r="643" spans="1:1" ht="12.75">
-      <c r="A643" s="34"/>
+      <c r="A643" s="33"/>
     </row>
     <row r="644" spans="1:1" ht="12.75">
-      <c r="A644" s="34"/>
+      <c r="A644" s="33"/>
     </row>
     <row r="645" spans="1:1" ht="12.75">
-      <c r="A645" s="34"/>
+      <c r="A645" s="33"/>
     </row>
     <row r="646" spans="1:1" ht="12.75">
-      <c r="A646" s="34"/>
+      <c r="A646" s="33"/>
     </row>
     <row r="647" spans="1:1" ht="12.75">
-      <c r="A647" s="34"/>
+      <c r="A647" s="33"/>
     </row>
     <row r="648" spans="1:1" ht="12.75">
-      <c r="A648" s="34"/>
+      <c r="A648" s="33"/>
     </row>
     <row r="649" spans="1:1" ht="12.75">
-      <c r="A649" s="34"/>
+      <c r="A649" s="33"/>
     </row>
     <row r="650" spans="1:1" ht="12.75">
-      <c r="A650" s="34"/>
+      <c r="A650" s="33"/>
     </row>
     <row r="651" spans="1:1" ht="12.75">
-      <c r="A651" s="34"/>
+      <c r="A651" s="33"/>
     </row>
     <row r="652" spans="1:1" ht="12.75">
-      <c r="A652" s="34"/>
+      <c r="A652" s="33"/>
     </row>
     <row r="653" spans="1:1" ht="12.75">
-      <c r="A653" s="34"/>
+      <c r="A653" s="33"/>
     </row>
     <row r="654" spans="1:1" ht="12.75">
-      <c r="A654" s="34"/>
+      <c r="A654" s="33"/>
     </row>
     <row r="655" spans="1:1" ht="12.75">
-      <c r="A655" s="34"/>
+      <c r="A655" s="33"/>
     </row>
     <row r="656" spans="1:1" ht="12.75">
-      <c r="A656" s="34"/>
+      <c r="A656" s="33"/>
     </row>
     <row r="657" spans="1:1" ht="12.75">
-      <c r="A657" s="34"/>
+      <c r="A657" s="33"/>
     </row>
     <row r="658" spans="1:1" ht="12.75">
-      <c r="A658" s="34"/>
+      <c r="A658" s="33"/>
     </row>
     <row r="659" spans="1:1" ht="12.75">
-      <c r="A659" s="34"/>
+      <c r="A659" s="33"/>
     </row>
     <row r="660" spans="1:1" ht="12.75">
-      <c r="A660" s="34"/>
+      <c r="A660" s="33"/>
     </row>
     <row r="661" spans="1:1" ht="12.75">
-      <c r="A661" s="34"/>
+      <c r="A661" s="33"/>
     </row>
     <row r="662" spans="1:1" ht="12.75">
-      <c r="A662" s="34"/>
+      <c r="A662" s="33"/>
     </row>
     <row r="663" spans="1:1" ht="12.75">
-      <c r="A663" s="34"/>
+      <c r="A663" s="33"/>
     </row>
     <row r="664" spans="1:1" ht="12.75">
-      <c r="A664" s="34"/>
+      <c r="A664" s="33"/>
     </row>
     <row r="665" spans="1:1" ht="12.75">
-      <c r="A665" s="34"/>
+      <c r="A665" s="33"/>
     </row>
     <row r="666" spans="1:1" ht="12.75">
-      <c r="A666" s="34"/>
+      <c r="A666" s="33"/>
     </row>
     <row r="667" spans="1:1" ht="12.75">
-      <c r="A667" s="34"/>
+      <c r="A667" s="33"/>
     </row>
     <row r="668" spans="1:1" ht="12.75">
-      <c r="A668" s="34"/>
+      <c r="A668" s="33"/>
     </row>
     <row r="669" spans="1:1" ht="12.75">
-      <c r="A669" s="34"/>
+      <c r="A669" s="33"/>
     </row>
     <row r="670" spans="1:1" ht="12.75">
-      <c r="A670" s="34"/>
+      <c r="A670" s="33"/>
     </row>
     <row r="671" spans="1:1" ht="12.75">
-      <c r="A671" s="34"/>
+      <c r="A671" s="33"/>
     </row>
     <row r="672" spans="1:1" ht="12.75">
-      <c r="A672" s="34"/>
+      <c r="A672" s="33"/>
     </row>
     <row r="673" spans="1:1" ht="12.75">
-      <c r="A673" s="34"/>
+      <c r="A673" s="33"/>
     </row>
     <row r="674" spans="1:1" ht="12.75">
-      <c r="A674" s="34"/>
+      <c r="A674" s="33"/>
     </row>
     <row r="675" spans="1:1" ht="12.75">
-      <c r="A675" s="34"/>
+      <c r="A675" s="33"/>
     </row>
     <row r="676" spans="1:1" ht="12.75">
-      <c r="A676" s="34"/>
+      <c r="A676" s="33"/>
     </row>
     <row r="677" spans="1:1" ht="12.75">
-      <c r="A677" s="34"/>
+      <c r="A677" s="33"/>
     </row>
     <row r="678" spans="1:1" ht="12.75">
-      <c r="A678" s="34"/>
+      <c r="A678" s="33"/>
     </row>
     <row r="679" spans="1:1" ht="12.75">
-      <c r="A679" s="34"/>
+      <c r="A679" s="33"/>
     </row>
     <row r="680" spans="1:1" ht="12.75">
-      <c r="A680" s="34"/>
+      <c r="A680" s="33"/>
     </row>
     <row r="681" spans="1:1" ht="12.75">
-      <c r="A681" s="34"/>
+      <c r="A681" s="33"/>
     </row>
     <row r="682" spans="1:1" ht="12.75">
-      <c r="A682" s="34"/>
+      <c r="A682" s="33"/>
     </row>
     <row r="683" spans="1:1" ht="12.75">
-      <c r="A683" s="34"/>
+      <c r="A683" s="33"/>
     </row>
     <row r="684" spans="1:1" ht="12.75">
-      <c r="A684" s="34"/>
+      <c r="A684" s="33"/>
     </row>
     <row r="685" spans="1:1" ht="12.75">
-      <c r="A685" s="34"/>
+      <c r="A685" s="33"/>
     </row>
     <row r="686" spans="1:1" ht="12.75">
-      <c r="A686" s="34"/>
+      <c r="A686" s="33"/>
     </row>
     <row r="687" spans="1:1" ht="12.75">
-      <c r="A687" s="34"/>
+      <c r="A687" s="33"/>
     </row>
     <row r="688" spans="1:1" ht="12.75">
-      <c r="A688" s="34"/>
+      <c r="A688" s="33"/>
     </row>
     <row r="689" spans="1:1" ht="12.75">
-      <c r="A689" s="34"/>
+      <c r="A689" s="33"/>
     </row>
     <row r="690" spans="1:1" ht="12.75">
-      <c r="A690" s="34"/>
+      <c r="A690" s="33"/>
     </row>
     <row r="691" spans="1:1" ht="12.75">
-      <c r="A691" s="34"/>
+      <c r="A691" s="33"/>
     </row>
     <row r="692" spans="1:1" ht="12.75">
-      <c r="A692" s="34"/>
+      <c r="A692" s="33"/>
     </row>
     <row r="693" spans="1:1" ht="12.75">
-      <c r="A693" s="34"/>
+      <c r="A693" s="33"/>
     </row>
     <row r="694" spans="1:1" ht="12.75">
-      <c r="A694" s="34"/>
+      <c r="A694" s="33"/>
     </row>
     <row r="695" spans="1:1" ht="12.75">
-      <c r="A695" s="34"/>
+      <c r="A695" s="33"/>
     </row>
     <row r="696" spans="1:1" ht="12.75">
-      <c r="A696" s="34"/>
+      <c r="A696" s="33"/>
     </row>
     <row r="697" spans="1:1" ht="12.75">
-      <c r="A697" s="34"/>
+      <c r="A697" s="33"/>
     </row>
     <row r="698" spans="1:1" ht="12.75">
-      <c r="A698" s="34"/>
+      <c r="A698" s="33"/>
     </row>
     <row r="699" spans="1:1" ht="12.75">
-      <c r="A699" s="34"/>
+      <c r="A699" s="33"/>
     </row>
     <row r="700" spans="1:1" ht="12.75">
-      <c r="A700" s="34"/>
+      <c r="A700" s="33"/>
     </row>
     <row r="701" spans="1:1" ht="12.75">
-      <c r="A701" s="34"/>
+      <c r="A701" s="33"/>
     </row>
     <row r="702" spans="1:1" ht="12.75">
-      <c r="A702" s="34"/>
+      <c r="A702" s="33"/>
     </row>
     <row r="703" spans="1:1" ht="12.75">
-      <c r="A703" s="34"/>
+      <c r="A703" s="33"/>
     </row>
     <row r="704" spans="1:1" ht="12.75">
-      <c r="A704" s="34"/>
+      <c r="A704" s="33"/>
     </row>
     <row r="705" spans="1:1" ht="12.75">
-      <c r="A705" s="34"/>
+      <c r="A705" s="33"/>
     </row>
     <row r="706" spans="1:1" ht="12.75">
-      <c r="A706" s="34"/>
+      <c r="A706" s="33"/>
     </row>
     <row r="707" spans="1:1" ht="12.75">
-      <c r="A707" s="34"/>
+      <c r="A707" s="33"/>
     </row>
     <row r="708" spans="1:1" ht="12.75">
-      <c r="A708" s="34"/>
+      <c r="A708" s="33"/>
     </row>
     <row r="709" spans="1:1" ht="12.75">
-      <c r="A709" s="34"/>
+      <c r="A709" s="33"/>
     </row>
     <row r="710" spans="1:1" ht="12.75">
-      <c r="A710" s="34"/>
+      <c r="A710" s="33"/>
     </row>
     <row r="711" spans="1:1" ht="12.75">
-      <c r="A711" s="34"/>
+      <c r="A711" s="33"/>
     </row>
     <row r="712" spans="1:1" ht="12.75">
-      <c r="A712" s="34"/>
+      <c r="A712" s="33"/>
     </row>
     <row r="713" spans="1:1" ht="12.75">
-      <c r="A713" s="34"/>
+      <c r="A713" s="33"/>
     </row>
     <row r="714" spans="1:1" ht="12.75">
-      <c r="A714" s="34"/>
+      <c r="A714" s="33"/>
     </row>
     <row r="715" spans="1:1" ht="12.75">
-      <c r="A715" s="34"/>
+      <c r="A715" s="33"/>
     </row>
     <row r="716" spans="1:1" ht="12.75">
-      <c r="A716" s="34"/>
+      <c r="A716" s="33"/>
     </row>
     <row r="717" spans="1:1" ht="12.75">
-      <c r="A717" s="34"/>
+      <c r="A717" s="33"/>
     </row>
     <row r="718" spans="1:1" ht="12.75">
-      <c r="A718" s="34"/>
+      <c r="A718" s="33"/>
     </row>
     <row r="719" spans="1:1" ht="12.75">
-      <c r="A719" s="34"/>
+      <c r="A719" s="33"/>
     </row>
     <row r="720" spans="1:1" ht="12.75">
-      <c r="A720" s="34"/>
+      <c r="A720" s="33"/>
     </row>
     <row r="721" spans="1:1" ht="12.75">
-      <c r="A721" s="34"/>
+      <c r="A721" s="33"/>
     </row>
     <row r="722" spans="1:1" ht="12.75">
-      <c r="A722" s="34"/>
+      <c r="A722" s="33"/>
     </row>
     <row r="723" spans="1:1" ht="12.75">
-      <c r="A723" s="34"/>
+      <c r="A723" s="33"/>
     </row>
     <row r="724" spans="1:1" ht="12.75">
-      <c r="A724" s="34"/>
+      <c r="A724" s="33"/>
     </row>
     <row r="725" spans="1:1" ht="12.75">
-      <c r="A725" s="34"/>
+      <c r="A725" s="33"/>
     </row>
     <row r="726" spans="1:1" ht="12.75">
-      <c r="A726" s="34"/>
+      <c r="A726" s="33"/>
     </row>
     <row r="727" spans="1:1" ht="12.75">
-      <c r="A727" s="34"/>
+      <c r="A727" s="33"/>
     </row>
     <row r="728" spans="1:1" ht="12.75">
-      <c r="A728" s="34"/>
+      <c r="A728" s="33"/>
     </row>
     <row r="729" spans="1:1" ht="12.75">
-      <c r="A729" s="34"/>
+      <c r="A729" s="33"/>
     </row>
     <row r="730" spans="1:1" ht="12.75">
-      <c r="A730" s="34"/>
+      <c r="A730" s="33"/>
     </row>
     <row r="731" spans="1:1" ht="12.75">
-      <c r="A731" s="34"/>
+      <c r="A731" s="33"/>
     </row>
     <row r="732" spans="1:1" ht="12.75">
-      <c r="A732" s="34"/>
+      <c r="A732" s="33"/>
     </row>
     <row r="733" spans="1:1" ht="12.75">
-      <c r="A733" s="34"/>
+      <c r="A733" s="33"/>
     </row>
     <row r="734" spans="1:1" ht="12.75">
-      <c r="A734" s="34"/>
+      <c r="A734" s="33"/>
     </row>
     <row r="735" spans="1:1" ht="12.75">
-      <c r="A735" s="34"/>
+      <c r="A735" s="33"/>
     </row>
     <row r="736" spans="1:1" ht="12.75">
-      <c r="A736" s="34"/>
+      <c r="A736" s="33"/>
     </row>
     <row r="737" spans="1:1" ht="12.75">
-      <c r="A737" s="34"/>
+      <c r="A737" s="33"/>
     </row>
     <row r="738" spans="1:1" ht="12.75">
-      <c r="A738" s="34"/>
+      <c r="A738" s="33"/>
     </row>
     <row r="739" spans="1:1" ht="12.75">
-      <c r="A739" s="34"/>
+      <c r="A739" s="33"/>
     </row>
     <row r="740" spans="1:1" ht="12.75">
-      <c r="A740" s="34"/>
+      <c r="A740" s="33"/>
     </row>
     <row r="741" spans="1:1" ht="12.75">
-      <c r="A741" s="34"/>
+      <c r="A741" s="33"/>
     </row>
     <row r="742" spans="1:1" ht="12.75">
-      <c r="A742" s="34"/>
+      <c r="A742" s="33"/>
     </row>
     <row r="743" spans="1:1" ht="12.75">
-      <c r="A743" s="34"/>
+      <c r="A743" s="33"/>
     </row>
     <row r="744" spans="1:1" ht="12.75">
-      <c r="A744" s="34"/>
+      <c r="A744" s="33"/>
     </row>
     <row r="745" spans="1:1" ht="12.75">
-      <c r="A745" s="34"/>
+      <c r="A745" s="33"/>
     </row>
     <row r="746" spans="1:1" ht="12.75">
-      <c r="A746" s="34"/>
+      <c r="A746" s="33"/>
     </row>
     <row r="747" spans="1:1" ht="12.75">
-      <c r="A747" s="34"/>
+      <c r="A747" s="33"/>
     </row>
     <row r="748" spans="1:1" ht="12.75">
-      <c r="A748" s="34"/>
+      <c r="A748" s="33"/>
     </row>
     <row r="749" spans="1:1" ht="12.75">
-      <c r="A749" s="34"/>
+      <c r="A749" s="33"/>
     </row>
     <row r="750" spans="1:1" ht="12.75">
-      <c r="A750" s="34"/>
+      <c r="A750" s="33"/>
     </row>
     <row r="751" spans="1:1" ht="12.75">
-      <c r="A751" s="34"/>
+      <c r="A751" s="33"/>
     </row>
     <row r="752" spans="1:1" ht="12.75">
-      <c r="A752" s="34"/>
+      <c r="A752" s="33"/>
     </row>
     <row r="753" spans="1:1" ht="12.75">
-      <c r="A753" s="34"/>
+      <c r="A753" s="33"/>
     </row>
     <row r="754" spans="1:1" ht="12.75">
-      <c r="A754" s="34"/>
+      <c r="A754" s="33"/>
     </row>
     <row r="755" spans="1:1" ht="12.75">
-      <c r="A755" s="34"/>
+      <c r="A755" s="33"/>
     </row>
     <row r="756" spans="1:1" ht="12.75">
-      <c r="A756" s="34"/>
+      <c r="A756" s="33"/>
     </row>
     <row r="757" spans="1:1" ht="12.75">
-      <c r="A757" s="34"/>
+      <c r="A757" s="33"/>
     </row>
     <row r="758" spans="1:1" ht="12.75">
-      <c r="A758" s="34"/>
+      <c r="A758" s="33"/>
     </row>
     <row r="759" spans="1:1" ht="12.75">
-      <c r="A759" s="34"/>
+      <c r="A759" s="33"/>
     </row>
     <row r="760" spans="1:1" ht="12.75">
-      <c r="A760" s="34"/>
+      <c r="A760" s="33"/>
     </row>
     <row r="761" spans="1:1" ht="12.75">
-      <c r="A761" s="34"/>
+      <c r="A761" s="33"/>
     </row>
     <row r="762" spans="1:1" ht="12.75">
-      <c r="A762" s="34"/>
+      <c r="A762" s="33"/>
     </row>
     <row r="763" spans="1:1" ht="12.75">
-      <c r="A763" s="34"/>
+      <c r="A763" s="33"/>
     </row>
     <row r="764" spans="1:1" ht="12.75">
-      <c r="A764" s="34"/>
+      <c r="A764" s="33"/>
     </row>
     <row r="765" spans="1:1" ht="12.75">
-      <c r="A765" s="34"/>
+      <c r="A765" s="33"/>
     </row>
     <row r="766" spans="1:1" ht="12.75">
-      <c r="A766" s="34"/>
+      <c r="A766" s="33"/>
     </row>
     <row r="767" spans="1:1" ht="12.75">
-      <c r="A767" s="34"/>
+      <c r="A767" s="33"/>
     </row>
     <row r="768" spans="1:1" ht="12.75">
-      <c r="A768" s="34"/>
+      <c r="A768" s="33"/>
     </row>
     <row r="769" spans="1:1" ht="12.75">
-      <c r="A769" s="34"/>
+      <c r="A769" s="33"/>
     </row>
     <row r="770" spans="1:1" ht="12.75">
-      <c r="A770" s="34"/>
+      <c r="A770" s="33"/>
     </row>
     <row r="771" spans="1:1" ht="12.75">
-      <c r="A771" s="34"/>
+      <c r="A771" s="33"/>
     </row>
     <row r="772" spans="1:1" ht="12.75">
-      <c r="A772" s="34"/>
+      <c r="A772" s="33"/>
     </row>
     <row r="773" spans="1:1" ht="12.75">
-      <c r="A773" s="34"/>
+      <c r="A773" s="33"/>
     </row>
     <row r="774" spans="1:1" ht="12.75">
-      <c r="A774" s="34"/>
+      <c r="A774" s="33"/>
     </row>
     <row r="775" spans="1:1" ht="12.75">
-      <c r="A775" s="34"/>
+      <c r="A775" s="33"/>
     </row>
     <row r="776" spans="1:1" ht="12.75">
-      <c r="A776" s="34"/>
+      <c r="A776" s="33"/>
     </row>
     <row r="777" spans="1:1" ht="12.75">
-      <c r="A777" s="34"/>
+      <c r="A777" s="33"/>
     </row>
     <row r="778" spans="1:1" ht="12.75">
-      <c r="A778" s="34"/>
+      <c r="A778" s="33"/>
     </row>
     <row r="779" spans="1:1" ht="12.75">
-      <c r="A779" s="34"/>
+      <c r="A779" s="33"/>
     </row>
     <row r="780" spans="1:1" ht="12.75">
-      <c r="A780" s="34"/>
+      <c r="A780" s="33"/>
     </row>
     <row r="781" spans="1:1" ht="12.75">
-      <c r="A781" s="34"/>
+      <c r="A781" s="33"/>
     </row>
     <row r="782" spans="1:1" ht="12.75">
-      <c r="A782" s="34"/>
+      <c r="A782" s="33"/>
     </row>
     <row r="783" spans="1:1" ht="12.75">
-      <c r="A783" s="34"/>
+      <c r="A783" s="33"/>
     </row>
     <row r="784" spans="1:1" ht="12.75">
-      <c r="A784" s="34"/>
+      <c r="A784" s="33"/>
     </row>
     <row r="785" spans="1:1" ht="12.75">
-      <c r="A785" s="34"/>
+      <c r="A785" s="33"/>
     </row>
     <row r="786" spans="1:1" ht="12.75">
-      <c r="A786" s="34"/>
+      <c r="A786" s="33"/>
     </row>
     <row r="787" spans="1:1" ht="12.75">
-      <c r="A787" s="34"/>
+      <c r="A787" s="33"/>
     </row>
     <row r="788" spans="1:1" ht="12.75">
-      <c r="A788" s="34"/>
+      <c r="A788" s="33"/>
     </row>
     <row r="789" spans="1:1" ht="12.75">
-      <c r="A789" s="34"/>
+      <c r="A789" s="33"/>
     </row>
     <row r="790" spans="1:1" ht="12.75">
-      <c r="A790" s="34"/>
+      <c r="A790" s="33"/>
     </row>
     <row r="791" spans="1:1" ht="12.75">
-      <c r="A791" s="34"/>
+      <c r="A791" s="33"/>
     </row>
     <row r="792" spans="1:1" ht="12.75">
-      <c r="A792" s="34"/>
+      <c r="A792" s="33"/>
     </row>
     <row r="793" spans="1:1" ht="12.75">
-      <c r="A793" s="34"/>
+      <c r="A793" s="33"/>
     </row>
     <row r="794" spans="1:1" ht="12.75">
-      <c r="A794" s="34"/>
+      <c r="A794" s="33"/>
     </row>
     <row r="795" spans="1:1" ht="12.75">
-      <c r="A795" s="34"/>
+      <c r="A795" s="33"/>
     </row>
     <row r="796" spans="1:1" ht="12.75">
-      <c r="A796" s="34"/>
+      <c r="A796" s="33"/>
     </row>
     <row r="797" spans="1:1" ht="12.75">
-      <c r="A797" s="34"/>
+      <c r="A797" s="33"/>
     </row>
     <row r="798" spans="1:1" ht="12.75">
-      <c r="A798" s="34"/>
+      <c r="A798" s="33"/>
     </row>
     <row r="799" spans="1:1" ht="12.75">
-      <c r="A799" s="34"/>
+      <c r="A799" s="33"/>
     </row>
     <row r="800" spans="1:1" ht="12.75">
-      <c r="A800" s="34"/>
+      <c r="A800" s="33"/>
     </row>
     <row r="801" spans="1:1" ht="12.75">
-      <c r="A801" s="34"/>
+      <c r="A801" s="33"/>
     </row>
     <row r="802" spans="1:1" ht="12.75">
-      <c r="A802" s="34"/>
+      <c r="A802" s="33"/>
     </row>
     <row r="803" spans="1:1" ht="12.75">
-      <c r="A803" s="34"/>
+      <c r="A803" s="33"/>
     </row>
     <row r="804" spans="1:1" ht="12.75">
-      <c r="A804" s="34"/>
+      <c r="A804" s="33"/>
     </row>
     <row r="805" spans="1:1" ht="12.75">
-      <c r="A805" s="34"/>
+      <c r="A805" s="33"/>
     </row>
     <row r="806" spans="1:1" ht="12.75">
-      <c r="A806" s="34"/>
+      <c r="A806" s="33"/>
     </row>
     <row r="807" spans="1:1" ht="12.75">
-      <c r="A807" s="34"/>
+      <c r="A807" s="33"/>
     </row>
     <row r="808" spans="1:1" ht="12.75">
-      <c r="A808" s="34"/>
+      <c r="A808" s="33"/>
     </row>
     <row r="809" spans="1:1" ht="12.75">
-      <c r="A809" s="34"/>
+      <c r="A809" s="33"/>
     </row>
     <row r="810" spans="1:1" ht="12.75">
-      <c r="A810" s="34"/>
+      <c r="A810" s="33"/>
     </row>
     <row r="811" spans="1:1" ht="12.75">
-      <c r="A811" s="34"/>
+      <c r="A811" s="33"/>
     </row>
     <row r="812" spans="1:1" ht="12.75">
-      <c r="A812" s="34"/>
+      <c r="A812" s="33"/>
     </row>
     <row r="813" spans="1:1" ht="12.75">
-      <c r="A813" s="34"/>
+      <c r="A813" s="33"/>
     </row>
     <row r="814" spans="1:1" ht="12.75">
-      <c r="A814" s="34"/>
+      <c r="A814" s="33"/>
     </row>
     <row r="815" spans="1:1" ht="12.75">
-      <c r="A815" s="34"/>
+      <c r="A815" s="33"/>
     </row>
     <row r="816" spans="1:1" ht="12.75">
-      <c r="A816" s="34"/>
+      <c r="A816" s="33"/>
     </row>
     <row r="817" spans="1:1" ht="12.75">
-      <c r="A817" s="34"/>
+      <c r="A817" s="33"/>
     </row>
     <row r="818" spans="1:1" ht="12.75">
-      <c r="A818" s="34"/>
+      <c r="A818" s="33"/>
     </row>
     <row r="819" spans="1:1" ht="12.75">
-      <c r="A819" s="34"/>
+      <c r="A819" s="33"/>
     </row>
     <row r="820" spans="1:1" ht="12.75">
-      <c r="A820" s="34"/>
+      <c r="A820" s="33"/>
     </row>
     <row r="821" spans="1:1" ht="12.75">
-      <c r="A821" s="34"/>
+      <c r="A821" s="33"/>
     </row>
     <row r="822" spans="1:1" ht="12.75">
-      <c r="A822" s="34"/>
+      <c r="A822" s="33"/>
     </row>
     <row r="823" spans="1:1" ht="12.75">
-      <c r="A823" s="34"/>
+      <c r="A823" s="33"/>
     </row>
     <row r="824" spans="1:1" ht="12.75">
-      <c r="A824" s="34"/>
+      <c r="A824" s="33"/>
     </row>
     <row r="825" spans="1:1" ht="12.75">
-      <c r="A825" s="34"/>
+      <c r="A825" s="33"/>
     </row>
     <row r="826" spans="1:1" ht="12.75">
-      <c r="A826" s="34"/>
+      <c r="A826" s="33"/>
     </row>
     <row r="827" spans="1:1" ht="12.75">
-      <c r="A827" s="34"/>
+      <c r="A827" s="33"/>
     </row>
     <row r="828" spans="1:1" ht="12.75">
-      <c r="A828" s="34"/>
+      <c r="A828" s="33"/>
     </row>
     <row r="829" spans="1:1" ht="12.75">
-      <c r="A829" s="34"/>
+      <c r="A829" s="33"/>
     </row>
     <row r="830" spans="1:1" ht="12.75">
-      <c r="A830" s="34"/>
+      <c r="A830" s="33"/>
     </row>
     <row r="831" spans="1:1" ht="12.75">
-      <c r="A831" s="34"/>
+      <c r="A831" s="33"/>
     </row>
     <row r="832" spans="1:1" ht="12.75">
-      <c r="A832" s="34"/>
+      <c r="A832" s="33"/>
     </row>
     <row r="833" spans="1:1" ht="12.75">
-      <c r="A833" s="34"/>
+      <c r="A833" s="33"/>
     </row>
     <row r="834" spans="1:1" ht="12.75">
-      <c r="A834" s="34"/>
+      <c r="A834" s="33"/>
     </row>
     <row r="835" spans="1:1" ht="12.75">
-      <c r="A835" s="34"/>
+      <c r="A835" s="33"/>
     </row>
     <row r="836" spans="1:1" ht="12.75">
-      <c r="A836" s="34"/>
+      <c r="A836" s="33"/>
     </row>
     <row r="837" spans="1:1" ht="12.75">
-      <c r="A837" s="34"/>
+      <c r="A837" s="33"/>
     </row>
     <row r="838" spans="1:1" ht="12.75">
-      <c r="A838" s="34"/>
+      <c r="A838" s="33"/>
     </row>
     <row r="839" spans="1:1" ht="12.75">
-      <c r="A839" s="34"/>
+      <c r="A839" s="33"/>
     </row>
     <row r="840" spans="1:1" ht="12.75">
-      <c r="A840" s="34"/>
+      <c r="A840" s="33"/>
     </row>
     <row r="841" spans="1:1" ht="12.75">
-      <c r="A841" s="34"/>
+      <c r="A841" s="33"/>
     </row>
     <row r="842" spans="1:1" ht="12.75">
-      <c r="A842" s="34"/>
+      <c r="A842" s="33"/>
     </row>
     <row r="843" spans="1:1" ht="12.75">
-      <c r="A843" s="34"/>
+      <c r="A843" s="33"/>
     </row>
     <row r="844" spans="1:1" ht="12.75">
-      <c r="A844" s="34"/>
+      <c r="A844" s="33"/>
     </row>
     <row r="845" spans="1:1" ht="12.75">
-      <c r="A845" s="34"/>
+      <c r="A845" s="33"/>
     </row>
     <row r="846" spans="1:1" ht="12.75">
-      <c r="A846" s="34"/>
+      <c r="A846" s="33"/>
     </row>
     <row r="847" spans="1:1" ht="12.75">
-      <c r="A847" s="34"/>
+      <c r="A847" s="33"/>
     </row>
     <row r="848" spans="1:1" ht="12.75">
-      <c r="A848" s="34"/>
+      <c r="A848" s="33"/>
     </row>
     <row r="849" spans="1:1" ht="12.75">
-      <c r="A849" s="34"/>
+      <c r="A849" s="33"/>
     </row>
     <row r="850" spans="1:1" ht="12.75">
-      <c r="A850" s="34"/>
+      <c r="A850" s="33"/>
     </row>
     <row r="851" spans="1:1" ht="12.75">
-      <c r="A851" s="34"/>
+      <c r="A851" s="33"/>
     </row>
     <row r="852" spans="1:1" ht="12.75">
-      <c r="A852" s="34"/>
+      <c r="A852" s="33"/>
     </row>
     <row r="853" spans="1:1" ht="12.75">
-      <c r="A853" s="34"/>
+      <c r="A853" s="33"/>
     </row>
     <row r="854" spans="1:1" ht="12.75">
-      <c r="A854" s="34"/>
+      <c r="A854" s="33"/>
     </row>
     <row r="855" spans="1:1" ht="12.75">
-      <c r="A855" s="34"/>
+      <c r="A855" s="33"/>
     </row>
     <row r="856" spans="1:1" ht="12.75">
-      <c r="A856" s="34"/>
+      <c r="A856" s="33"/>
     </row>
     <row r="857" spans="1:1" ht="12.75">
-      <c r="A857" s="34"/>
+      <c r="A857" s="33"/>
     </row>
     <row r="858" spans="1:1" ht="12.75">
-      <c r="A858" s="34"/>
+      <c r="A858" s="33"/>
     </row>
     <row r="859" spans="1:1" ht="12.75">
-      <c r="A859" s="34"/>
+      <c r="A859" s="33"/>
     </row>
     <row r="860" spans="1:1" ht="12.75">
-      <c r="A860" s="34"/>
+      <c r="A860" s="33"/>
     </row>
     <row r="861" spans="1:1" ht="12.75">
-      <c r="A861" s="34"/>
+      <c r="A861" s="33"/>
     </row>
     <row r="862" spans="1:1" ht="12.75">
-      <c r="A862" s="34"/>
+      <c r="A862" s="33"/>
     </row>
     <row r="863" spans="1:1" ht="12.75">
-      <c r="A863" s="34"/>
+      <c r="A863" s="33"/>
     </row>
     <row r="864" spans="1:1" ht="12.75">
-      <c r="A864" s="34"/>
+      <c r="A864" s="33"/>
     </row>
     <row r="865" spans="1:1" ht="12.75">
-      <c r="A865" s="34"/>
+      <c r="A865" s="33"/>
     </row>
     <row r="866" spans="1:1" ht="12.75">
-      <c r="A866" s="34"/>
+      <c r="A866" s="33"/>
     </row>
     <row r="867" spans="1:1" ht="12.75">
-      <c r="A867" s="34"/>
+      <c r="A867" s="33"/>
     </row>
     <row r="868" spans="1:1" ht="12.75">
-      <c r="A868" s="34"/>
+      <c r="A868" s="33"/>
     </row>
     <row r="869" spans="1:1" ht="12.75">
-      <c r="A869" s="34"/>
+      <c r="A869" s="33"/>
     </row>
     <row r="870" spans="1:1" ht="12.75">
-      <c r="A870" s="34"/>
+      <c r="A870" s="33"/>
     </row>
     <row r="871" spans="1:1" ht="12.75">
-      <c r="A871" s="34"/>
+      <c r="A871" s="33"/>
     </row>
     <row r="872" spans="1:1" ht="12.75">
-      <c r="A872" s="34"/>
+      <c r="A872" s="33"/>
     </row>
     <row r="873" spans="1:1" ht="12.75">
-      <c r="A873" s="34"/>
+      <c r="A873" s="33"/>
     </row>
     <row r="874" spans="1:1" ht="12.75">
-      <c r="A874" s="34"/>
+      <c r="A874" s="33"/>
     </row>
     <row r="875" spans="1:1" ht="12.75">
-      <c r="A875" s="34"/>
+      <c r="A875" s="33"/>
     </row>
     <row r="876" spans="1:1" ht="12.75">
-      <c r="A876" s="34"/>
+      <c r="A876" s="33"/>
     </row>
     <row r="877" spans="1:1" ht="12.75">
-      <c r="A877" s="34"/>
+      <c r="A877" s="33"/>
     </row>
     <row r="878" spans="1:1" ht="12.75">
-      <c r="A878" s="34"/>
+      <c r="A878" s="33"/>
     </row>
     <row r="879" spans="1:1" ht="12.75">
-      <c r="A879" s="34"/>
+      <c r="A879" s="33"/>
     </row>
     <row r="880" spans="1:1" ht="12.75">
-      <c r="A880" s="34"/>
+      <c r="A880" s="33"/>
     </row>
     <row r="881" spans="1:1" ht="12.75">
-      <c r="A881" s="34"/>
+      <c r="A881" s="33"/>
     </row>
     <row r="882" spans="1:1" ht="12.75">
-      <c r="A882" s="34"/>
+      <c r="A882" s="33"/>
     </row>
     <row r="883" spans="1:1" ht="12.75">
-      <c r="A883" s="34"/>
+      <c r="A883" s="33"/>
     </row>
     <row r="884" spans="1:1" ht="12.75">
-      <c r="A884" s="34"/>
+      <c r="A884" s="33"/>
     </row>
     <row r="885" spans="1:1" ht="12.75">
-      <c r="A885" s="34"/>
+      <c r="A885" s="33"/>
     </row>
     <row r="886" spans="1:1" ht="12.75">
-      <c r="A886" s="34"/>
+      <c r="A886" s="33"/>
     </row>
     <row r="887" spans="1:1" ht="12.75">
-      <c r="A887" s="34"/>
+      <c r="A887" s="33"/>
     </row>
     <row r="888" spans="1:1" ht="12.75">
-      <c r="A888" s="34"/>
+      <c r="A888" s="33"/>
     </row>
     <row r="889" spans="1:1" ht="12.75">
-      <c r="A889" s="34"/>
+      <c r="A889" s="33"/>
     </row>
     <row r="890" spans="1:1" ht="12.75">
-      <c r="A890" s="34"/>
+      <c r="A890" s="33"/>
     </row>
     <row r="891" spans="1:1" ht="12.75">
-      <c r="A891" s="34"/>
+      <c r="A891" s="33"/>
     </row>
     <row r="892" spans="1:1" ht="12.75">
-      <c r="A892" s="34"/>
+      <c r="A892" s="33"/>
     </row>
     <row r="893" spans="1:1" ht="12.75">
-      <c r="A893" s="34"/>
+      <c r="A893" s="33"/>
     </row>
     <row r="894" spans="1:1" ht="12.75">
-      <c r="A894" s="34"/>
+      <c r="A894" s="33"/>
     </row>
     <row r="895" spans="1:1" ht="12.75">
-      <c r="A895" s="34"/>
+      <c r="A895" s="33"/>
     </row>
     <row r="896" spans="1:1" ht="12.75">
-      <c r="A896" s="34"/>
+      <c r="A896" s="33"/>
     </row>
     <row r="897" spans="1:1" ht="12.75">
-      <c r="A897" s="34"/>
+      <c r="A897" s="33"/>
     </row>
     <row r="898" spans="1:1" ht="12.75">
-      <c r="A898" s="34"/>
+      <c r="A898" s="33"/>
     </row>
     <row r="899" spans="1:1" ht="12.75">
-      <c r="A899" s="34"/>
+      <c r="A899" s="33"/>
     </row>
     <row r="900" spans="1:1" ht="12.75">
-      <c r="A900" s="34"/>
+      <c r="A900" s="33"/>
     </row>
     <row r="901" spans="1:1" ht="12.75">
-      <c r="A901" s="34"/>
+      <c r="A901" s="33"/>
     </row>
     <row r="902" spans="1:1" ht="12.75">
-      <c r="A902" s="34"/>
+      <c r="A902" s="33"/>
     </row>
     <row r="903" spans="1:1" ht="12.75">
-      <c r="A903" s="34"/>
+      <c r="A903" s="33"/>
     </row>
     <row r="904" spans="1:1" ht="12.75">
-      <c r="A904" s="34"/>
+      <c r="A904" s="33"/>
     </row>
     <row r="905" spans="1:1" ht="12.75">
-      <c r="A905" s="34"/>
+      <c r="A905" s="33"/>
     </row>
     <row r="906" spans="1:1" ht="12.75">
-      <c r="A906" s="34"/>
+      <c r="A906" s="33"/>
     </row>
     <row r="907" spans="1:1" ht="12.75">
-      <c r="A907" s="34"/>
+      <c r="A907" s="33"/>
     </row>
     <row r="908" spans="1:1" ht="12.75">
-      <c r="A908" s="34"/>
+      <c r="A908" s="33"/>
     </row>
     <row r="909" spans="1:1" ht="12.75">
-      <c r="A909" s="34"/>
+      <c r="A909" s="33"/>
     </row>
     <row r="910" spans="1:1" ht="12.75">
-      <c r="A910" s="34"/>
+      <c r="A910" s="33"/>
     </row>
     <row r="911" spans="1:1" ht="12.75">
-      <c r="A911" s="34"/>
+      <c r="A911" s="33"/>
     </row>
     <row r="912" spans="1:1" ht="12.75">
-      <c r="A912" s="34"/>
+      <c r="A912" s="33"/>
     </row>
     <row r="913" spans="1:1" ht="12.75">
-      <c r="A913" s="34"/>
+      <c r="A913" s="33"/>
     </row>
     <row r="914" spans="1:1" ht="12.75">
-      <c r="A914" s="34"/>
+      <c r="A914" s="33"/>
     </row>
     <row r="915" spans="1:1" ht="12.75">
-      <c r="A915" s="34"/>
+      <c r="A915" s="33"/>
     </row>
     <row r="916" spans="1:1" ht="12.75">
-      <c r="A916" s="34"/>
+      <c r="A916" s="33"/>
     </row>
     <row r="917" spans="1:1" ht="12.75">
-      <c r="A917" s="34"/>
+      <c r="A917" s="33"/>
     </row>
     <row r="918" spans="1:1" ht="12.75">
-      <c r="A918" s="34"/>
+      <c r="A918" s="33"/>
     </row>
     <row r="919" spans="1:1" ht="12.75">
-      <c r="A919" s="34"/>
+      <c r="A919" s="33"/>
     </row>
     <row r="920" spans="1:1" ht="12.75">
-      <c r="A920" s="34"/>
+      <c r="A920" s="33"/>
     </row>
     <row r="921" spans="1:1" ht="12.75">
-      <c r="A921" s="34"/>
+      <c r="A921" s="33"/>
     </row>
     <row r="922" spans="1:1" ht="12.75">
-      <c r="A922" s="34"/>
+      <c r="A922" s="33"/>
     </row>
     <row r="923" spans="1:1" ht="12.75">
-      <c r="A923" s="34"/>
+      <c r="A923" s="33"/>
     </row>
     <row r="924" spans="1:1" ht="12.75">
-      <c r="A924" s="34"/>
+      <c r="A924" s="33"/>
     </row>
     <row r="925" spans="1:1" ht="12.75">
-      <c r="A925" s="34"/>
+      <c r="A925" s="33"/>
     </row>
     <row r="926" spans="1:1" ht="12.75">
-      <c r="A926" s="34"/>
+      <c r="A926" s="33"/>
     </row>
     <row r="927" spans="1:1" ht="12.75">
-      <c r="A927" s="34"/>
+      <c r="A927" s="33"/>
     </row>
     <row r="928" spans="1:1" ht="12.75">
-      <c r="A928" s="34"/>
+      <c r="A928" s="33"/>
     </row>
     <row r="929" spans="1:1" ht="12.75">
-      <c r="A929" s="34"/>
+      <c r="A929" s="33"/>
     </row>
     <row r="930" spans="1:1" ht="12.75">
-      <c r="A930" s="34"/>
+      <c r="A930" s="33"/>
     </row>
     <row r="931" spans="1:1" ht="12.75">
-      <c r="A931" s="34"/>
+      <c r="A931" s="33"/>
     </row>
     <row r="932" spans="1:1" ht="12.75">
-      <c r="A932" s="34"/>
+      <c r="A932" s="33"/>
     </row>
     <row r="933" spans="1:1" ht="12.75">
-      <c r="A933" s="34"/>
+      <c r="A933" s="33"/>
     </row>
     <row r="934" spans="1:1" ht="12.75">
-      <c r="A934" s="34"/>
+      <c r="A934" s="33"/>
     </row>
     <row r="935" spans="1:1" ht="12.75">
-      <c r="A935" s="34"/>
+      <c r="A935" s="33"/>
     </row>
     <row r="936" spans="1:1" ht="12.75">
-      <c r="A936" s="34"/>
+      <c r="A936" s="33"/>
     </row>
     <row r="937" spans="1:1" ht="12.75">
-      <c r="A937" s="34"/>
+      <c r="A937" s="33"/>
     </row>
     <row r="938" spans="1:1" ht="12.75">
-      <c r="A938" s="34"/>
+      <c r="A938" s="33"/>
     </row>
     <row r="939" spans="1:1" ht="12.75">
-      <c r="A939" s="34"/>
+      <c r="A939" s="33"/>
     </row>
     <row r="940" spans="1:1" ht="12.75">
-      <c r="A940" s="34"/>
+      <c r="A940" s="33"/>
     </row>
     <row r="941" spans="1:1" ht="12.75">
-      <c r="A941" s="34"/>
+      <c r="A941" s="33"/>
     </row>
     <row r="942" spans="1:1" ht="12.75">
-      <c r="A942" s="34"/>
+      <c r="A942" s="33"/>
     </row>
     <row r="943" spans="1:1" ht="12.75">
-      <c r="A943" s="34"/>
+      <c r="A943" s="33"/>
     </row>
     <row r="944" spans="1:1" ht="12.75">
-      <c r="A944" s="34"/>
+      <c r="A944" s="33"/>
     </row>
     <row r="945" spans="1:1" ht="12.75">
-      <c r="A945" s="34"/>
+      <c r="A945" s="33"/>
     </row>
     <row r="946" spans="1:1" ht="12.75">
-      <c r="A946" s="34"/>
+      <c r="A946" s="33"/>
     </row>
     <row r="947" spans="1:1" ht="12.75">
-      <c r="A947" s="34"/>
+      <c r="A947" s="33"/>
     </row>
     <row r="948" spans="1:1" ht="12.75">
-      <c r="A948" s="34"/>
+      <c r="A948" s="33"/>
     </row>
     <row r="949" spans="1:1" ht="12.75">
-      <c r="A949" s="34"/>
+      <c r="A949" s="33"/>
     </row>
     <row r="950" spans="1:1" ht="12.75">
-      <c r="A950" s="34"/>
+      <c r="A950" s="33"/>
     </row>
     <row r="951" spans="1:1" ht="12.75">
-      <c r="A951" s="34"/>
+      <c r="A951" s="33"/>
     </row>
     <row r="952" spans="1:1" ht="12.75">
-      <c r="A952" s="34"/>
+      <c r="A952" s="33"/>
     </row>
     <row r="953" spans="1:1" ht="12.75">
-      <c r="A953" s="34"/>
+      <c r="A953" s="33"/>
     </row>
     <row r="954" spans="1:1" ht="12.75">
-      <c r="A954" s="34"/>
+      <c r="A954" s="33"/>
     </row>
     <row r="955" spans="1:1" ht="12.75">
-      <c r="A955" s="34"/>
+      <c r="A955" s="33"/>
     </row>
     <row r="956" spans="1:1" ht="12.75">
-      <c r="A956" s="34"/>
+      <c r="A956" s="33"/>
     </row>
     <row r="957" spans="1:1" ht="12.75">
-      <c r="A957" s="34"/>
+      <c r="A957" s="33"/>
     </row>
     <row r="958" spans="1:1" ht="12.75">
-      <c r="A958" s="34"/>
+      <c r="A958" s="33"/>
     </row>
     <row r="959" spans="1:1" ht="12.75">
-      <c r="A959" s="34"/>
+      <c r="A959" s="33"/>
     </row>
     <row r="960" spans="1:1" ht="12.75">
-      <c r="A960" s="34"/>
+      <c r="A960" s="33"/>
     </row>
     <row r="961" spans="1:63" ht="12.75">
-      <c r="A961" s="34"/>
+      <c r="A961" s="33"/>
     </row>
     <row r="962" spans="1:63" ht="12.75">
-      <c r="A962" s="34"/>
+      <c r="A962" s="33"/>
     </row>
     <row r="963" spans="1:63" ht="12.75">
-      <c r="A963" s="34"/>
+      <c r="A963" s="33"/>
     </row>
     <row r="964" spans="1:63" ht="12.75">
-      <c r="A964" s="34"/>
+      <c r="A964" s="33"/>
     </row>
     <row r="965" spans="1:63" ht="12.75">
-      <c r="A965" s="34"/>
+      <c r="A965" s="33"/>
     </row>
     <row r="966" spans="1:63" ht="12.75">
-      <c r="A966" s="34"/>
+      <c r="A966" s="33"/>
     </row>
     <row r="967" spans="1:63" ht="12.75">
-      <c r="A967" s="34"/>
+      <c r="A967" s="33"/>
     </row>
     <row r="968" spans="1:63" ht="12.75">
-      <c r="A968" s="34"/>
+      <c r="A968" s="33"/>
     </row>
     <row r="969" spans="1:63" ht="12.75">
-      <c r="A969" s="34"/>
+      <c r="A969" s="33"/>
     </row>
     <row r="970" spans="1:63" ht="12.75">
-      <c r="A970" s="34"/>
+      <c r="A970" s="33"/>
     </row>
     <row r="971" spans="1:63" ht="12.75">
-      <c r="A971" s="34"/>
+      <c r="A971" s="33"/>
     </row>
     <row r="972" spans="1:63" ht="12.75">
-      <c r="A972" s="34"/>
+      <c r="A972" s="33"/>
     </row>
     <row r="973" spans="1:63" ht="12.75">
-      <c r="A973" s="34"/>
+      <c r="A973" s="33"/>
       <c r="I973" s="3"/>
       <c r="J973" s="3"/>
       <c r="K973" s="3"/>
@@ -6612,73 +6601,73 @@
       <c r="BK973" s="3"/>
     </row>
     <row r="974" spans="1:63" ht="12.75">
-      <c r="A974" s="34"/>
+      <c r="A974" s="33"/>
     </row>
     <row r="975" spans="1:63" ht="12.75">
-      <c r="A975" s="34"/>
+      <c r="A975" s="33"/>
     </row>
     <row r="976" spans="1:63" ht="12.75">
-      <c r="A976" s="34"/>
+      <c r="A976" s="33"/>
     </row>
     <row r="977" spans="1:1" ht="12.75">
-      <c r="A977" s="34"/>
+      <c r="A977" s="33"/>
     </row>
     <row r="978" spans="1:1" ht="12.75">
-      <c r="A978" s="34"/>
+      <c r="A978" s="33"/>
     </row>
     <row r="979" spans="1:1" ht="12.75">
-      <c r="A979" s="34"/>
+      <c r="A979" s="33"/>
     </row>
     <row r="980" spans="1:1" ht="12.75">
-      <c r="A980" s="34"/>
+      <c r="A980" s="33"/>
     </row>
     <row r="981" spans="1:1" ht="12.75">
-      <c r="A981" s="34"/>
+      <c r="A981" s="33"/>
     </row>
     <row r="982" spans="1:1" ht="12.75">
-      <c r="A982" s="34"/>
+      <c r="A982" s="33"/>
     </row>
     <row r="983" spans="1:1" ht="12.75">
-      <c r="A983" s="34"/>
+      <c r="A983" s="33"/>
     </row>
     <row r="984" spans="1:1" ht="12.75">
-      <c r="A984" s="34"/>
+      <c r="A984" s="33"/>
     </row>
     <row r="985" spans="1:1" ht="12.75">
-      <c r="A985" s="34"/>
+      <c r="A985" s="33"/>
     </row>
     <row r="986" spans="1:1" ht="12.75">
-      <c r="A986" s="34"/>
+      <c r="A986" s="33"/>
     </row>
     <row r="987" spans="1:1" ht="12.75">
-      <c r="A987" s="34"/>
+      <c r="A987" s="33"/>
     </row>
     <row r="988" spans="1:1" ht="12.75">
-      <c r="A988" s="34"/>
+      <c r="A988" s="33"/>
     </row>
     <row r="989" spans="1:1" ht="12.75">
-      <c r="A989" s="34"/>
+      <c r="A989" s="33"/>
     </row>
     <row r="990" spans="1:1" ht="12.75">
-      <c r="A990" s="34"/>
+      <c r="A990" s="33"/>
     </row>
     <row r="991" spans="1:1" ht="12.75">
-      <c r="A991" s="34"/>
+      <c r="A991" s="33"/>
     </row>
     <row r="992" spans="1:1" ht="12.75">
-      <c r="A992" s="34"/>
+      <c r="A992" s="33"/>
     </row>
     <row r="993" spans="1:8" ht="12.75">
-      <c r="A993" s="34"/>
+      <c r="A993" s="33"/>
     </row>
     <row r="994" spans="1:8" ht="12.75">
-      <c r="A994" s="34"/>
+      <c r="A994" s="33"/>
     </row>
     <row r="995" spans="1:8" ht="12.75">
-      <c r="A995" s="34"/>
+      <c r="A995" s="33"/>
     </row>
     <row r="996" spans="1:8" ht="12.75">
-      <c r="A996" s="35"/>
+      <c r="A996" s="34"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
       <c r="D996" s="3"/>
@@ -6689,16 +6678,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="AM4:AQ4"/>
     <mergeCell ref="AH4:AL4"/>
     <mergeCell ref="C4:C5"/>
@@ -6713,6 +6692,16 @@
     <mergeCell ref="BB4:BF4"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:H19">
     <cfRule type="colorScale" priority="5">
